--- a/backend/app/etl/data/Masterlijst_Algoritmeregister.xlsx
+++ b/backend/app/etl/data/Masterlijst_Algoritmeregister.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ictubeheer.sharepoint.com/teams/Algoritmeregister/Gedeelde documenten/Aanlevering ICTU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="667" documentId="11_3992FF4FD34257FAE683B122FAAB90AC598255A0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96FC586F-363F-421D-8501-42BA3C16CB3C}"/>
+  <xr:revisionPtr revIDLastSave="716" documentId="11_3992FF4FD34257FAE683B122FAAB90AC598255A0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B3B974D-AF6C-4293-A3C4-E5681035E2EA}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="794" firstSheet="10" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="794" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template (dupliceer dit blad)" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,9 @@
     <sheet name="Ministerie EZK" sheetId="18" r:id="rId8"/>
     <sheet name="Ministerie SZW" sheetId="9" r:id="rId9"/>
     <sheet name="Ministerie Financiën" sheetId="17" r:id="rId10"/>
-    <sheet name="Provincie Noord-Brabant" sheetId="14" r:id="rId11"/>
-    <sheet name="Provincie Zuid-Holland" sheetId="15" r:id="rId12"/>
+    <sheet name="Omgevingsdienst NZKG" sheetId="19" r:id="rId11"/>
+    <sheet name="Provincie Noord-Brabant" sheetId="14" r:id="rId12"/>
+    <sheet name="Provincie Zuid-Holland" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="1209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="1285">
   <si>
     <t>*</t>
   </si>
@@ -2743,16 +2744,19 @@
     <t>Directie Informatievoorziening en Systemen, afdeling Identiteitssystemen</t>
   </si>
   <si>
-    <t>Programmateam Kadastrale kaart next</t>
-  </si>
-  <si>
-    <t>Data science team, directie Beheer en Ontwikkeling  Informatietechnologie</t>
-  </si>
-  <si>
-    <t>Landinrichting, directie Operatie, Dienstverlening en Registratie</t>
-  </si>
-  <si>
-    <t>Team akte AI, directie Beheer en Ontwikkeling  Informatietechnologie</t>
+    <t>programmateam Kadastrale kaart next</t>
+  </si>
+  <si>
+    <t>data science team, directie Beheer en Ontwikkeling  Informatietechnologie (BOI)</t>
+  </si>
+  <si>
+    <t>Landinrichting, directie Operatie, Dienstverlening en Registratie (ODR)</t>
+  </si>
+  <si>
+    <t>team Akte AI, directie Beheer en Ontwikkeling Informatietechnologie (BOI)</t>
+  </si>
+  <si>
+    <t>team akte AI, directie Beheer en Ontwikkeling  Informatietechnologie (BOI)</t>
   </si>
   <si>
     <t>Technische ondersteuning voor het verifiëren van de kwaliteit van de foto.</t>
@@ -2791,19 +2795,19 @@
     <t>Algoritme dat de inschrijver kan helpen om “look-alike-fraude” te voorkomen.</t>
   </si>
   <si>
-    <t>Opnieuw opbouwen kadastrale kaart vanuit de scans van originele historische veldwerken met behulp van AI</t>
-  </si>
-  <si>
-    <t>Loki is een experiment waarbij we de toegevoegde waarde aantonen van een chatbot voor Locatie-gebaseerde Kadaster Informatieverstrekking.</t>
-  </si>
-  <si>
-    <t>Transfer is een iteratief optimaliseringsalgoritme voor de vereffening van wensen (van betrokkenen) en modellen in relatie tot de beperkingen van het betreffende gebied  bij landinrichtingsvraagstukken.</t>
-  </si>
-  <si>
-    <t>Akte AI biedt ondersteuning bij de overnemen van data uit notariële aktes door geautomatiseerde data extractie​.</t>
-  </si>
-  <si>
-    <t>Onderkennen inschrijfbare rechtsfeiten in het 2e deel van KIK akten</t>
+    <t>Met artificial intelligence (kunstmatige intelligentie) bouwen we de kadastrale kaart opnieuw op. HiervoMet artificial intelligence (kunstmatige intelligentie) bouwen we de kadastrale kaart opnieuw op. Hiervoor gebruiken we scans van originele historische veldwerken.</t>
+  </si>
+  <si>
+    <t>Hoe helpt een chatbot om informatie uit kadastrale databronnen toegankelijk te maken voor burgers? Dat onderzochten we met Loki.</t>
+  </si>
+  <si>
+    <t>Bij landinrichting komen de wensen en belangen van veel partijen samen, zoals boeren, natuurbeheerorganisaties en overheden. In Transfer voeren we al deze de wensen en belangen in. Op basis hiervan geeft Transfer de beste mogelijke oplossing om een gebied opnieuw in te richten.</t>
+  </si>
+  <si>
+    <t>Akte AI zorgt ervoor dat data uit notariële akten automatisch wordt overgenomen. De medewerker die de akte verwerkt hoeft de gegevens alleen nog maar te controleren en eventueel aan te passen.</t>
+  </si>
+  <si>
+    <t>Dit algoritme herkent inschrijfbare rechtsfeiten in het 2e deel van KIK-akten.</t>
   </si>
   <si>
     <t>Voorschrijvend</t>
@@ -2818,13 +2822,7 @@
     <t>Voorschrijvend algoritme</t>
   </si>
   <si>
-    <t>voorspellend</t>
-  </si>
-  <si>
-    <t>beschrijvend</t>
-  </si>
-  <si>
-    <t>diagnostisch</t>
+    <t>Deels op regels gebaseerd, deels zelflerend</t>
   </si>
   <si>
     <t>Basisregistratie</t>
@@ -2848,10 +2846,13 @@
     <t xml:space="preserve">https://www.rvig.nl/documenten/publicaties/2017/08/22/voorkom-dubbelinschrijvingen-in-de-brp </t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>https://labs.kadaster.nl/cases/loki</t>
   </si>
   <si>
-    <t>operationeel</t>
+    <t>in gebruik</t>
   </si>
   <si>
     <t>pilot</t>
@@ -2885,16 +2886,21 @@
 Dit algoritme ondersteunt de RNI-medewerker aan de balie zodat deze met enige zekerheid kan vaststellen of de persoon aan de balie ook de persoon is van wie het identiteitsdocument gescand is.</t>
   </si>
   <si>
-    <t>Doel van het programma KKN (Kadastrale kaart next) is een verbeterde kadastrale kaart waarvan de afbeelding van de grenzen zoveel mogelijk de ligging in het terrein benadert en de nauwkeurigheid bekend is. De oorspronkelijke meetgegevens vormen de basis voor dit herkarteringsproces, doel van de AI-inzet is het mogelijk maken van een zo automatisch mogelijk productieproces waardoor de kosten binnen acceptabele grenzen blijven.</t>
-  </si>
-  <si>
-    <t>Aantonen van de toegevoegde waarde van een chatbot voor Locatie-gebaseerde Kadaster Informatieverstrekking</t>
-  </si>
-  <si>
-    <t>Het oplossen van ingewikkelde landinrichtingsvraagstukken .</t>
-  </si>
-  <si>
-    <t>efficiency en kwaliteitsverbetering​.</t>
+    <t>De Kadastrale kaart next is een verbeterde kadastrale kaart. Op deze kaart zie je de grenzen zoveel mogelijk zoals ze ook in werkelijkheid zijn. We gebruiken hiervoor de oorspronkelijke meetgegevens, dus oude veldwerken. Ook maken we gebruik van algoritmen en kunstmatige intelligentie. Zo kunnen we het proces automatiseren. Op die manier besparen we kosten en zorgen we voor een nauwkeurigere Kadastrale kaart: de Kadastrale kaart next.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Met Loki willen we laten zien wat de aangetoonde waarde is van een chatbot bij het opvragen van informatieMet Loki willen we laten zien wat de aangetoonde waarde is van een chatbot bij het opvragen van informatie uit onze data.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer helpt om ingewikkelde vraagstukken op het gebied vTransfer helpt om ingewikkelde vraagstukken op het gebied van landinrichting op te lossen.
+</t>
+  </si>
+  <si>
+    <t>Met Akte AI willen we akten zo snel mMet Akte AI willen we akten zo snel mogelijk en zo juist mogelijk kunnen verwerken. Het helpt ons om efficiënt te werken en de kwaliteit van de akteverwerking te verbeteren.</t>
+  </si>
+  <si>
+    <t>Met dit algoritme willen we akten zo snel mogelijk en zo juist mogelijk kunnen verwerken. Het helpt ons om efficiënt te werken en de kwaliteit van de akteverwerking te verbeteren.</t>
   </si>
   <si>
     <t>Als de foto niet voldoet aan de vastgestelde kwaliteitscriteria, moet er een nieuwe foto aangeleverd worden door de burger.</t>
@@ -2930,16 +2936,22 @@
     <t>Als de applicatie met gebruik van het algoritme aangeeft dat de persoon wiens identiteitsdocument gescand is niet de persoon is die aan de balie staat, dan zal de RNI-medewerker zelf moeten beslissen of dit terecht is of niet. De RNI-medewerker aan de balie is uiteindelijk de eindverantwoordelijke. Als hij de afwijzing door het algoritme terecht vindt, dan wordt de aanvraag tot inschrijving in de BRP door de burger afgewezen. Hierbij kan bij deze afwijzing aangegeven worden of er en vermoeden is van fraude.</t>
   </si>
   <si>
-    <t>Gebruik van deze toepassing is alleen bedoeld voor het productieproces van de KKN door medewerkers van het Kadaster en aanbestedingspartners. Het ontwikkelde module heeft dus geen (directe) impact op de samenleving.</t>
-  </si>
-  <si>
-    <t>Beantwoorden van vragen van de burger, die geen uitgebreide kennis heeft van APIs, Linked Data, of waar de informatie in de verschillende databronnen (van het Kadaster) te vinden is.</t>
+    <t xml:space="preserve">Met deze toepassing kunnen we een Kadastrale kaart next maken. Deze kaart wordt gebruikt door medewerkers van het Kadaster en aanbestedingspartners. Burgers kunnen tegen betaling een Kadastrale kaart opvragen bij het Kadaster. De Kadastrale kaart next komt dus beter overeen met de werkelijkheid.
+</t>
+  </si>
+  <si>
+    <t>Bij het Kadaster beheren we verschillende (open) databronnen. Iedereen mag onze data gebruiken: van gemeentes en overheden tot notarissen en makelaars. Maar ook burgers, die geen uitBij het Kadaster beheren we verschillende (open) databronnen. Iedereen mag onze data gebruiken: van gemeentes en overheden tot notarissen en makelaars. Maar ook burgers, die geen uitgebreide kennis hebben van API’s en Linked Data. Ook zij willen informatie uit onze data, zoals het bouwjaar van hun huis is of waar hun perceel ligt.
+Als Kadaster willen we dat iedereen deze vragen kan stellen: in spraak én in natuurlijke taal. We willen geen antwoord geven in cijfers, maar in taal. Daarbij halen we onze informatie vaak niet uit 1 bron, maar uit meerdere bronnen. Dat geeft burgers een juist en volledig antwoord.</t>
   </si>
   <si>
     <t xml:space="preserve">Transfer is een hulpmiddel wat wordt ingezet in een wettelijk traject. De gevolgen voor de belanghebbenden en de samenleving zijn geborgd in de wetgeving. </t>
   </si>
   <si>
-    <t>Geen impact op burgers. Het gaat om het optimaliseren van het interne proces van het Kadaster</t>
+    <t>Akte AI heeft geen directe impact op burgers. Het gaat om het verbeteren van ons interne procAkte AI heeft geen directe impact op burgers. Het gaat om het verbeteren van ons interne proces. Wel worden akten sneller verwerkt en maken we hierbij minder fouten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rechtsfeiten KIK 2e deel heeft geen directe impact op burgers. Het gaat om het verbeteren vanRechtsfeiten KIK 2e deel heeft geen directe impact op burgers. Het gaat om het verbeteren van ons interne proces. Wel worden akten sneller verwerkt en maken we hierbij minder fouten.
+</t>
   </si>
   <si>
     <t>De inzet van het algoritme is een kosteneffectieve manier om de kwaliteit van de pasfoto in het identiteitsdocument te borgen. De inzet van het algoritme heeft geen herkenningsdoeleinde, maar zorgt alleen voor de meting van de kwaliteit, om ervoor te zorgen dat kwalitatief zo hoog mogelijk foto’s in het identiteitsdocument worden opgenomen.
@@ -2986,13 +2998,19 @@
     <t>De inzet van dit algoritme helpt de RNI-medewerker met het vaststellen van de identiteit van de burger aan de balie.</t>
   </si>
   <si>
-    <t>Met de opkomst van virtual assistents, zoals Siri, Alexa &amp; de Google Assistent en de ontwikkelingen omtrent de Kadaster Knowledge Graph, ontstaan er nieuwe inzichten over hoe de data van de toekomst moet worden ontsloten. Het Kadaster wil de toegevoegde waarde hiervan onderzoeken.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transfer is bedacht om een  ingewikkeld vraagstuk objectief te kunnen behandelen. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geen negatieve gevolgen voor de maatschappij. Het proces is zo ingericht dat de rechtszekerheid niet vermindert (hoogstens beter wordt). </t>
+    <t xml:space="preserve">Virtuele assistenten, zoals Siri, Alexa en de Google Assistent worden steeds populairder. Daarin spreekt de gebruiker een vraag in of wordt de vraag niet ingetypt. Daarnaast ontwikkelen we de Kadaster Knowledge Graph. Hierdoor ontstaan allerlei nieuwe inzichten over hoe we in de tVirtuele assistenten, zoals Siri, Alexa en de Google Assistent worden steeds populairder. Daarin spreekt de gebruiker een vraag in of wordt de vraag niet ingetypt. Daarnaast ontwikkelen we de Kadaster Knowledge Graph. Hierdoor ontstaan allerlei nieuwe inzichten over hoe we in de toekomst data moeten presenteren. We willen onderzoeken hoe we de data het beste kunnen presenteren.
+</t>
+  </si>
+  <si>
+    <t>Met Transfer kunnen we een ingewikkeld vraagstuk objectief behandelen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akte AI heeft geen negatieve gevolgen voor de maatschappij. Het proces is zo ingericht dat de rechtszekerheid niet minder wordt en waarschijnlijk zelfs beter wordt.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rechtsfeiten KIK 2e deel heeft geen negatieve gevolgen voor de maatschappij. Het proces is zo ingericht dat de rechtszekerheid niet minder wordt en waarschijnlijk zelfs beter wordt.
+</t>
   </si>
   <si>
     <t>Bij iedere wijziging van het Logisch Ontwerp BRP en/of wijzigingen in de van toepassing zijnde wet- en regelgeving wordt nagegaan of er nieuwe regels toegevoegd moeten worden en/of dat bestaande regels gewijzigd moeten worden. Daarnaast kunnen door geautoriseerde afnemers van BRP-gegevens en gemeenten ook afwijkingen in persoonslijsten gemeld worden waarop nog niet gecontroleerd wordt door de BCM. Deze controles worden zo snel mogelijk toegevoegd aan de BCM als het om afwijkingen gaat waarop een controle mogelijk is. Het gaat daarbij altijd om fouten die door een gemeente hersteld zouden moeten worden. De gemeenten zijn zelf verantwoordelijk voor het oplossen van de fouten in persoonslijsten van de eigen ingezetenen.</t>
@@ -3001,7 +3019,7 @@
     <t>De kwaliteit van de BRP zo hoog mogelijk te houden.</t>
   </si>
   <si>
-    <t>De voorganger van Transfer heeft zijn oorsprong al in de jaren 70 van de vorige eeuw. Transfer is gebaseerd op onderzoeken van de TU Delft.</t>
+    <t>De voorganger van Transfer is ontwikkeld in de jaren 70 van de vorige eeuw. Transfer is gebaseerd op onderzoeken van de TU Delft.</t>
   </si>
   <si>
     <t>NFIQ2 source code and user guide: https://github.com/usnistgov/NFIQ2
@@ -3025,6 +3043,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.cognitec.com/facevacs-technology.html of https://www.oribi.nl/nl/problematiek/identiteitsfraude </t>
+  </si>
+  <si>
+    <t>,-</t>
   </si>
   <si>
     <t>Het algoritme ondersteunt de ambtenaar aan de balie van de uitgevende instantie bij de besluitvorming of de kwaliteit van de foto voldoet aan de internationale standaarden. Het algoritme wordt ingezet om te verifiëren of de foto voldoet aan de volgende parameters:
@@ -3144,40 +3165,75 @@
 De gegevens uit het gescande identiteitsdocument worden na akkoord van de RNI-medewerker  gebruikt bij de inschrijving in RNI. Van de uitgevoerde gezichtsscan wordt aan RNI alleen in een logregel doorgegeven dat deze is uitgevoerd en wat het resultaat hiervan is geweest. Dit resultaat kan zijn: ‘De gezichten zijn hetzelfde’ of ‘De gezichten zijn niet hetzelfde’.</t>
   </si>
   <si>
-    <t xml:space="preserve">De Kadastrale kaart is een resultaat van bijna 200 jaar percelen en grenzen inmeten en inpassen in de bestaande Kadastrale kaart waardoor een herkenbaar kaartbeeld ontstaat van een perceel in relatie tot aanliggende percelen. Omdat een kaart op schaal is kunnen de coördinaten iets verschoven liggen ten opzichte van de nauwkeurige ligging in het terrein, bovendien zijn bij het aan elkaar knopen van de oorspronkelijke losse kaarten wat extra onnauwkeurigheden geïntroduceerd. Bij de Kadastrale Kaart Next worden individuele kadastrale grenzen opnieuw opgebouwd vanuit de scans van historische veldwerken. Bij de verwerking van deze veldwerken wordt intensief gebruik gemaakt van artificial intelligence, met name bij de interpretatie van de meetgegevens op handgeschreven documenten. Hierdoor is vergaande automatisering en daarmee een forse kostenbesparing gerealiseerd ten opzichte van het handmatige alternatief. </t>
-  </si>
-  <si>
-    <t>Loki is een experiment waarbij we de toegevoegde waarde aantonen van een chatbot voor Locatie-gebaseerde Kadaster Informatieverstrekking. Loki maakt gebruik van natuurlijke taalverwerking voor het beantwoorden van vragen. Na dit experiment ontstond de wens voor een testbare versie voor de eindgebruiker. Deze versie zou Loki 1.0 heten en is door een student als afstudeeropdracht ontwikkeld. Loki 1.0 is te gebruiken door op het chat-icoon rechts onderaan het scherm op https://labs.kadaster.nl/cases/loki te klikken. Meer informatie over Loki 1.0 is onderaan deze pagina te lezen. Inmiddels wordt gewerkt aan Loki 3.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transfer wordt toegepast in landinrichtingsvraagstukken. In de voorfase worden de modellen ingeregeld. In de planvorming is het doel om te onderzoeken hoe al deze belangen en voornemens met elkaar in evenwicht kunnen worden gebracht. In de uitvoeringsfase worden de wensen van betrokken en beleidsvoornemens van overheden, natuurbeheerorganisaties en dergelijke ingevoerd. Het doel  in de uitvoeringsfase is om binnen het wettelijk kader op een objectieve wijze tot een optimale nieuwe situatie te komen. Dit gebeurt op een bepaald abstractieniveau, dat wil zeggen dat er niet met percelen wordt gerekend, maar met grotere eenheden, zogenaamde blokdelen. Bedrijfsdelen worden ook samengevoegd tot logische eenheden. </t>
-  </si>
-  <si>
-    <t>De basisregistratie Kadaster wordt bijgewerkt op basis van informatie in notariële leverings- of hypotheekakten. Akte AI ondersteunt daarbij door het onderkennen van de koper, verkoper, de betreffende onroerende zaak en eenvoudige rechtsfeiten zoals de vestiging van een hypotheek in een akte. Deze data wordt in een akte viewer gemarkeerd en wordt voor-ingevuld in het scherm waarin de data moet worden ingevoerd. De akte-verwerker controleert deze data en neemt deze al dan niet over.</t>
-  </si>
-  <si>
-    <t>KIK (Ketenintegratie Inschrijven Kadaster) akten bestaan uit een eerste deel (het Kadaster deel) waarin de in de Basisregistratie Kadaster (BRK) inschrijfbare feiten worden beschreven. In een convenant tussen notariaat en Kadaster is afgesproken dat het 2e deel van een KIK akte geen inschrijfbare feiten bevat. Soms worden in het 2e deel bedoeld of onbedoeld toch inschrijfbare feiten opgenomen. Omdat het convenant geen wettelijke basis is zijn deze rechtsfeiten gewoon rechtsgeldig. Om te voorkomen dat de BRK afwijkt van wat in de akte staat wordt voor iedere KIK akte het 2e deel gecontroleerd op inschrijfbare rechtsfeiten.</t>
+    <t>Voor een nóg nauwkeurigere kaart
+Hoe ligt een perceel ten opzichte van andere percelen? Dat is wat u ziet op de Kadastrale kaart. Die is gemaakt op basis van bijna 200 jaar meten. Maar er kunnen kleine onnauwkeurigheden ontstaan:
+1) De kaart is op schaal gemaakt. Daardoor kunnen de coördinaten iets verschuiven: op de kaart liggen ze dan iets anders dan in het terrein.
+2) Bovendien moesten de oorspronkelijk losse kaarten aan elkaar verbonden worden. Ook dat kan voor onnauwkeurigheden zorgen.
+Alle kadastrale grenzen opnieuw opbouwen
+Bij de Kadastrale Kaart Next bouwen we alle kadastrale grenzen opnieuw op. Dat doen we op basis van historische veldwerken. Dit zijn situatieschetsen met gegevens die een landmeter maakte toen de grens werd vastgesteld.
+Geautomatiseerd verwerken met kunstmatige intelligentie
+Voor de verwerking van de veldwerken gebruiken we kunstmatige intelligentie. Bijvoorbeeld bij de interpretatie van de met de hand geschreven meetgegevens. Door dit te automatiseren kunnen we kosten én tijd besparen.</t>
+  </si>
+  <si>
+    <t>Chatbot, die in natuurlijke taal antwoordt
+Virtuele assistenten als Siri, Alexa en Google Assistent worden steeds populairder. Als gebruiker spreek je je vraag in en je krijgt direct antwoord. Kunnen wij bij het Kadaster ook zo’n chatbot ontwikkelen? Een chatbot die gebruikmaakt van onze databronnen en antwoord geeft op vragen als: wat is het bouwjaar van mijn huis? En waar ligt mijn perceel precies?
+Informatie uit meerdere bronnen
+Bij het Kadaster beheren we meerdere databronnen, zoals de BAG, BRK en BRT. Als burgers iets vragen, dan komt het antwoord meestal niet uit 1 bron. Vaak zijn combinaties van meerdere bronnen nodig. Op die manier kun je juiste en volledige antwoorden geven aan gebruikers.
+Loki 3.0 is in ontwikkeling
+Loki is een chatbot, die natuurlijke taal gebruikt om vragen van burgers te beantwoorden. Loki gebruikt meerdere bronnen voor het beste antwoord. Op dit moment werken we aan een bruikbare versie voor burgers: Loki 3.0.</t>
+  </si>
+  <si>
+    <t>Objectief de beste oplossing bij landinrichting
+We willen steeds vaker de natuur de ruimte geven. Maar tegelijkertijd spelen ook de belangen van bijvoorbeeld boeren en provincies mee. Het is niet gemakkelijk om land opnieuw in te richten. Bij landinrichting en ruilverkaveling hebben veel partijen allemaal wensen. Transfer is een algoritme dat helpt om op objectieve wijze op zoek te gaan naar de best mogelijke oplossing voor iedereen.
+Transfer doorloopt altijd 3 fases
+1) In de voorfase regelen we de modellen in.
+2) In de planfase onderzoeken we de belangen en voornemens van betrokken partijen, zoals boeren, natuurbeheerorganisaties en overheden. We onderzoeken ook hoe we al deze belangen en voornemens met elkaar in evenwicht kunnen brengen.
+3) In de uitvoeringsfase voeren we de wensen van betrokkenen in. Transfer gebruikt hiervoor een bepaald abstractieniveau. Dat wil zeggen dat we niet met percelen rekenen, maar met grotere eenheden, zogenaamde blokdelen. Bedrijfsdelen voegen we samen tot logische eenheden.
+Het resultaat?
+Op basis van de wensen van alle betrokken partijen en het wettelijke kader berekent Transfer de best mogelijke nieuwe situatie. Doordat het een algoritme is, is het zo objectief mogelijk. Hiermee helpt Transfer om ingewikkelde vraagstukken op het gebied van landinrichting op te lossen.</t>
+  </si>
+  <si>
+    <t>Helpt akten geautomatiseerd verwerken
+Het Kadaster houdt de Basisregistratie Kadaster bij. Dat doen we op basis van informatie in notariële leverings- of hypotheekakten. Akte AI helpt ons daarbij door informatie geautomatiseerd op te halen uit de akten.
+Welke informatie haalt Akte AI op uit de akten?
+* wie de koper is
+* wie de verkoper is
+* om welke onroerende zaak het gaat, zoals een huis of perceel
+* om welke rechtsfeiten het gaat, zoals de vestiging van een hypotheek in een akte
+Een medewerker controleert de gegevens
+Alle gegevens worden verzameld door dit algoritme. Dat helpt de medewerker die de akte verwerkt. De medewerker controleert de data en bepaalt of de informatie wordt overgenomen (of niet). Na het verwerken zijn de gegevens opgenomen in de Basisregistratie Kadaster.</t>
+  </si>
+  <si>
+    <t>Automatisch akten controleren op rechtsfeiten
+Wie in Nederland een huis koopt, laat hiervan een akte maken bij de notaris. De notaris stuurt die akte vervolgens naar het Kadaster. Wij kunnen de informatie uit de akte dan verwerken in de kadastrale registers: de Basisregistratie Kadaster (BRK). De notaris kan hiervoor KIK (Ketenintegratie Inschrijven Kadaster) gebruiken. KIK is een gestandaardiseerde manier om akten aan te bieden.
+Een KIK-akte bestaat uit 2 delen
+Dat hebben het notariaat en Kadaster vastgelegd in een convenant.
+* In het 1e deel (het Kadaster deel) staan de inschrijfbare feiten, zoals een levering of een vestiging van een hypotheek.
+* In het 2e deel staan afspraken die niet bij het Kadaster hoeven te worden ingeschreven.
+Algoritme controleert op rechtsfeiten in 2e deel KIK-akte
+Toch gaat het soms mis: in het 2e deel staan dan toch inschrijfbare feiten. Het convenant heeft geen wettelijke basis. De rechtsfeiten zijn dan gewoon rechtsgeldig. Omdat KIK-akten automatisch worden verwerkt, zijn die rechtsfeiten dan niet zichtbaar in de Basisregistratie Kadaster. Dat is niet de bedoeling. Daarom controleert dit algoritme in iedere KIK-akte het 2e deel op inschrijfbare rechtsfeiten. Zo komt de Basisregistratie Kadaster overeen met wat in de akte staat.</t>
   </si>
   <si>
     <t>https://git.dev.cloud.kadaster.nl/rec/rec-vector</t>
   </si>
   <si>
-    <t>nvt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Er is een koppeling met de interne terrestrische registratie (IM-TER) en de BRK (IM-KAD). De grenzen hebben een voorkomende maar niet vastgelegde relatie met de volgende bestuurlijke grenzen: Rijks-, provincie en gemeentegrenzen. </t>
-  </si>
-  <si>
-    <t>BAG, BRK (Kadastrale kaart), BRT en WOZ</t>
-  </si>
-  <si>
-    <t>Er is geen directe koppeling met basisregistraties. Wel wordt data afgeleid uit de BRK.</t>
-  </si>
-  <si>
-    <t>AkteAI maakt geen gebruik van een koppeling met de BRP.</t>
-  </si>
-  <si>
-    <t>geen koppeling met de BRP</t>
+    <t>Er is een koppeling met de Basisregistratie Kadaster (BRK, IMKAD). De grenzen hebben een relatie met rijks-, provincie en gemeentegrenzen.</t>
+  </si>
+  <si>
+    <t>* BAG: Basisregistratie Adressen en GebouBAG: Basisregistratie Adressen en Gebouwen
+* BRK: Basisregistratie Kadaster (Kadastrale kaart)
+* BRT: Basisregistratie Topografie
+* WOZ: Waardering Onroerende Zaken</t>
+  </si>
+  <si>
+    <t>Er is geen directe koppeling met basisregistraties. Wel wordt data afgeleid uit de BRK, de Basisregistratie Kadaster.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akte AI maakt geen gebruik van koppelingen met basisregistraties.
+</t>
+  </si>
+  <si>
+    <t>Dit algoritme maakt geen gebruik van koppelingen met basisregistraties.</t>
   </si>
   <si>
     <t>Fotomatrix: Fotomatrix model 2020 | Brochure | Rijksoverheid.nl
@@ -3387,19 +3443,25 @@
     <t>De BRP</t>
   </si>
   <si>
-    <t>Er is een zo representatief mogelijke trainingsset gebruikt die bestaat uit verschillende regio’s en tijdsperiodes. De trainingsset voor OCR bestaat uit ongeveer 200.000 en de end to end trainingsset voor lijn- en objectdetectie uit 3.000.</t>
+    <t>Wij hebben een set veldwerken gebruikt, die kenmerkend is voor ons archief. Die set bestaat uit verschillende regio’s en tijdsperiodes. Dan is er nog een set voor OCR: het omzetten van handgeschreven teksten naar informatie die de computer kan lezen. Deze set bestaat uit ongeveer 200.000 veldwerken. De end-to-end set voor lijn- en objectdetectie bestaat uit 3.000 veldwerken.</t>
   </si>
   <si>
     <t>Loki maakt gebruik van openbare gegevens in de BAG, BRK (Kadastrale kaart), BRT en WOZ</t>
   </si>
   <si>
-    <t>Input bestaat uit rechthebbenden (volgens de Kadastrale registratie, maar ook bijvoorbeeld pachters), kaartcomponent,  wensen en beleidsvoornemens</t>
-  </si>
-  <si>
-    <t>Voor het herkennen van personalia wordt gebruik gemaakt van het open source taalmodel "bert-base-dutch-cased-finetuned-sonar-ner" van de Rijksuniversiteit Groningen. Herkenning van de overige data gebeurt op basis van zelf getrainde modellen, aangevuld met zelf ontwikkelde algoritmen. De trainingssets zijn momenteel statisch en variëren in grootte van enkele honderden tot enkele tienduizenden trainingsrecords verzameld uit akteteksten, we werken aan een feedback-loop waarmee maandelijks voor 8,33% wordt ververst.</t>
-  </si>
-  <si>
-    <t>De regelset wordt getoetst op een testset van 83.414 akten. Deze trainingsset is statisch en wordt niet ververst.</t>
+    <t xml:space="preserve">De data komt van rechthebbenden (volgens de Kadastrale registratie, maar ook bijvoorbeeld pachters). Verder gebruiken we: kaarten en de wensen en beleidsvoornemens van betrokkenen.
+</t>
+  </si>
+  <si>
+    <t>Voor het herkennen van persoonsgegevens gebruiken we "bert-base-dutch-cased-finetuned-sonar-ner". Dit is een open source taalmodel van de Rijksuniversiteit Groningen.
+Voor het herkennen van de andere data gebruiken we modellen die we zelf hebben getraind. En algoritmen die we zelf hebben ontwikkeld.Voor het herkennen van persoonsgegevens gebruiken we "bert-base-dutch-cased-finetuned-sonar-ner". Dit is een open source taalmodel van de Rijksuniversiteit Groningen.
+Voor het herkennen van de andere data gebruiken we modellen die we zelf hebben getraind. En algoritmen die we zelf hebben ontwikkeld.
+Over de trainingssets
+De trainingssets bestaan uit akteteksten. Die zijn op dit moment nog statisch en variëren in grootte: van enkele honderden tot enkele tienduizenden teksten per set.
+Verder werken we aan een feedback-loop. Hiermee is het geen statische set meer: iedere maand wordt dan 8,33% ververst. Er verdwijnen dan teksten en hier komen nieuwe akteteksten voor terug.</t>
+  </si>
+  <si>
+    <t>We toetsen de regelset op een testset van 83.414 akten. Deze trainingsset is statisch en wordt niet ververst. Dit betekent dat er dus geen nieuwe teksten bijkomen.</t>
   </si>
   <si>
     <t>De methode is machinaal leren en het model voor machinaal leren is gebaseerd op support vector machine (SVM).</t>
@@ -3424,26 +3486,36 @@
     <t xml:space="preserve">Deep learning. Advanced face recognition APIs: C++, Java, Microsoft .NET, BioAPI 2.0 Verification Engine (C API). Gedocumenteerde voorbeelden voor de belangrijkste use cases en specifieke implementaties. Hulpmiddelen voor biometrische evalusaties, waaronder genereren van ‘identification match’ overzichten en ‘similarity matrix’ data.  </t>
   </si>
   <si>
-    <t>Het algoritme gebruikt afzonderlijke neurale netwerken voor de OCR, lijndetectie en objectdetectie. Voor de OCR wordt een NN bestaand uit CNN en RNN lagen gebruikt, de lijndetectie is op basis van een aangepast UNET, en de objectdetectie gebeurt d.m.v. een MaskRCNN o.b.v. de SWIN transformer architectuur. Deze modellen zijn allen getraint op basis van veldwerk (componenten), en annotaties. De beschikbare dataset wordt opgesplitst in train, validatie en test-sets. De traindata wordt tijdens het trainen geaugmenteerd om een veelzijdige trainset te genereren. Tijdens het trainen wordt na elke iteratie de F-score bepaald op de validatie-set. Zodra de performance op de validatie-set niet meer verbeterd, wordt het trainen gestopt, waarna de F-score op de test-set wordt bepaald. Wanneer deze F-score beter is dan voorgaande trainingen worden de gewichten van het neurale netwerk gebruikt voor de voorspellingen.</t>
-  </si>
-  <si>
-    <t>chatbot framework Rasa, Speech-to-text API van Microsoft Azure, knowledge graph voor verbinden data uit verschillende registraties en SPARQL endpoint</t>
-  </si>
-  <si>
-    <t>De modellen zijn ontwikkeld op basis van onderzoeken van de TU Delft. Het is een optimaliseringsalgoritme dat wordt gebruikt om een optimum te vinden in een ruimte met zeer veel oplossingsmogelijkheden. Daarbij is sprake van een beperkte set van mogelijkheden, waarbij Transfer geen nieuwe opties aanmaakt, maar de beste zoekt.</t>
-  </si>
-  <si>
-    <t>Named Entity Recognition van persoonsnamen m.b.v. Hugging Face Transformers.
-Named Entity Recognition van organisatienaan, adres en rechtsvorm met behulp van het  spaCy framework
-Dependency Parsing van personen, organisaties, onroerende zaken, notarissen, rechtsfeiten en ondertekening  met behulp van het spaCy framework.
-Named Entity Recognition van de omschrijving van de onroerende zaak met behulp van het spaCy framework.
-Named Entity Recognition voor het splitsen van persoonsnamen in voornaam, tussenvoegsel en achternaam met behulp van het spaCy framework.
-Named Entity Recognition voor het splitsen van een adres in straat, huksnummer, huisletter, en toevoeging met behulp van het spaCy framework.
-Classificatie van type aktemet behulp van het spaCy framework
-In de zelf ontwikkelde algoritmen wordt (o.a.) gebruik gemaakt van reguliere expressies en spaCy pattern matchers.</t>
-  </si>
-  <si>
-    <t>Voor het herkennen van inschrijfbare feiten wordt gebruik gemaakt van een set regels (reguliere expressies). Deze zijn door de bewaarder gecontroleerd en akkoord bevonden.</t>
+    <t>Het algoritme gebruikt aparte neurale netwerken voor de OCR, lijndetectie en objectdetectie:
+* voor de OCR gebruiken we een NN, dat bestaat uit CNN- en RNN-lagen
+* de lijndetectie gebeurt op basis van een aangepast UNET
+* de objectdetectie gebeurt met een MaskRCNN op basis van de SWIN transformer architectuur
+Deze modellen zijn getraind op basis van veldwerk (componenten) en annotaties. Annotaties zijn notities met een opmerking of uitleg. De beschikbare dataset splitsen we op in train, validatie en test-sets. De traindata augmenteren we tijdens het trainen om een veelzijdige trainset te maken. Tijdens het trainen bepalen we na elke iteratie de F-score op de validatie-set. Zodra de performance op de validatie-set niet meer verbetert, stoppen we met het trainen. Daarna bepalen we de F-score op de test-set. Is deze F-score beter dan vorige trainingen? Dan gebruiken we de gewichten van het neurale netwerk voor de voorspellingen.</t>
+  </si>
+  <si>
+    <t>1) chatbot framework Rasa
+2) speech-to-text API van Microsoft Azure
+3) knowledge graph voor het verbinden data uit verschillende registraties en SPARQL-endpoints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De modellen zijn ontwikkeld op basis van onderzoeken van de TU Delft. Het is een optimaliseringsalgoritme. Dit betekent dat de beste optie wordt gekozen uit alle mogelijke oplossingen. Daarbij is sprake van een beperkte set van mogelijkheden. Transfer maakt dus geen nieuwe opties aan, maar zoekt de beste uit bestaande opties.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Named Entity Recognition van persoonsnamen met Hugging Face Transformers
+* Named Entity Recognition van organisatienaam, adres en rechtsvorm met het spaCy framework
+* Dependency Parsing van personen, organisaties, onroerende zaken, notarissen, rechtsfeiten en ondertekening met het spaCy framework
+* Named Entity Recognition van de omschrijving van de onroerende zaak met het spaCy framework
+* Named Entity Recognition voor het splitsen van persoonsnamen in voornaam, tussenvoegsel en achternaam met het spaCy framework
+* Named Entity Recognition voor het splitsen van een adres in straat, huisnummer, huisletter, en toevoeging met het spaCy framework
+* Classificatie van type akte met het spaCy framework
+* De zelf ontwikkelde algoritmen maken onder andere gebruik van:
+   * reguliere expressies
+   * spaCy pattern matchersNamed Entity Recognition van persoonsnamen met Hugging Face Transformers
+</t>
+  </si>
+  <si>
+    <t>Wij maken gebruik van een set regels (reguliere expressies). Die helpen om inschrijfbare feiten te herkennen. De bewaarder heeft deze gecontroleerd en akkoord gegeven.</t>
   </si>
   <si>
     <t>RvIG voert na elke grote wijziging in het aanvraagstation acceptatietesten uit op het algoritme, zoals bijvoorbeeld hardware vervanging of wijzigingen op het onderdeel van het scannen van de foto.</t>
@@ -3479,13 +3551,14 @@
     <t>De modellen worden gevalideerd op de testset en daarbij wordt een F-score berekend. Gedurende het proces worden deze scores bijgehouden met als doel om het algoritme steeds beter te maken (tussentijdse scores). Aan het einde wordt er gekeken naar de vereffening. Er is een ondergrens waar de vereffening aan moet voldoen (zelfde waarde als het handmatig proces) anders wordt het afgewezen.</t>
   </si>
   <si>
-    <t>Om het gebruik van Loki te monitoren is er een database opgezet om de gesprekken tussen Loki en zijn gebruikers op te slaan. Wij gebruiken deze data op onze beurt om het model wat omgaat met de ingegeven natuurlijke taal te verbeteren. Daarnaast biedt het ons een mooie manier om de klantbehoefte van Loki in kaart te brengen. Welke vragen stellen gebruikers nu aan ons? En hoe stellen zij deze? Het development team heeft een dashboard ontwikkeld waarmee ze antwoorden op deze vragen continu in beeld brengen.</t>
-  </si>
-  <si>
-    <t>Er is een 5% controle. 5% van alle verwerkte akten wordt gecontroleerd door een onafhankelijk controleteam.</t>
-  </si>
-  <si>
-    <t>2% controle. 2% van alle verwerkte akten wordt gecontroleerd door een onafhankelijk controleteam. Geautomatiseerde controle moet aan de norm van 99,5% volledig en correct voldoen.</t>
+    <t>Hoe kunnen we het gebruik van Loki monitoren? Daarvoor hebben wij een database gemaakt. Hiermee kunnen we de gesprekken tussen Loki en de gebruikers opslaan. Aan de hand van deze data zien wij welke taal burgers gebruiken. En we kunnen Loki leren om op deze manier te reageren. Zo zorgen we ervoor dat het taalgebruik van Loki aansluit op dat van de gebruikers: natuurlijke taal.
+Daarnaast kunnen we hiermee de klantbehoefte van Loki in kaart brengen. Welke vragen stellen gebruikers nu aan ons? En hoe stellen zij deze? Het development team ontwikkelde een dashboard. Hiermee krijgen ze inzichten in de antwoorden op deze vragen.</t>
+  </si>
+  <si>
+    <t>Wij werken met een 5% controle. Dit betekent dat een onafhankelijk team 5% van alle verwerkte akten controleert.</t>
+  </si>
+  <si>
+    <t>Wij werken met een 2% controle. Dit betekent dat een onafhankelijk team 2% van alle verwerkte akten controleert.</t>
   </si>
   <si>
     <t>De ambtenaar heeft de keuze om bij een door het algoritme afgekeurde foto deze alsnog te accepteren. De ambtenaar kan hierbij een of meerdere keuzes selecteren en heeft de volgende opties:
@@ -3528,16 +3601,16 @@
     <t>Uiteindelijk bepaalt de RNI-medewerker of hij de gezichtsscan wil gebruiken en wat hij met het resultaat van de gezichtsscan doet in het proces.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tijdens het trainen worden de F-scores berekend en wordt vereffening gebruikt om de uiteindelijke kwaliteit te bepalen. Daarnaast is er sprake van menselijke controle om zo de kwaliteit te waarborgen. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">human in the loop. Transfer is een hulpmiddel om tot de uiteindelijke oplossing te komen. </t>
-  </si>
-  <si>
-    <t>human in the loop. De AI doet een suggestie aan de medewerker die de data verwerkt. Er is altijd een medewerker 'in the loop'.</t>
-  </si>
-  <si>
-    <t>human on the loop. Een steekproef van 2% wordt gecontroleerd</t>
+    <t>Human on the loop. Dit betekent dat AI wordt toegepast in een automatisch proces. Zijn er afwijkingen? Dan controleren mensen het resultaat en passen dit aan als dat nodig is.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human in the loop. Transfer is een hulpmiddel om tot de uiteindelijke oplossing te komen. </t>
+  </si>
+  <si>
+    <t>Human in the loop. De Akte AI doet een suggestie aan de medewerker die de data verwerkt. Er is dus altijd een medewerker, die de suggestie beoordeelt.</t>
+  </si>
+  <si>
+    <t>Human on the loop. Dit algoritme wordt gebruikt in een geautomatiseerd proces. Er is geen directe, handmatige controle. Wij controleren door middel van een steekproef van 2%.</t>
   </si>
   <si>
     <t>Er is een basisbeveiligingsniveau toets afgenomen op juni 2022. Er zijn geen grote inherente risico’s voor beschikbaarheid, veiligheid of integriteit op dienstverlening gevonden, door gebruik van het foto-algoritme.</t>
@@ -3582,10 +3655,14 @@
     <t>De NIST tests worden gebruikt ter evaluatie van de performance</t>
   </si>
   <si>
-    <t>De verwachte prestaties van de modellen zijn per taak verschillend. De performance die wij verwachten te halen is dezelfde performance als wordt behaald op onze test-set. De test-set bevat een selectie veldwerken welke representatief zijn voor ons archief. De behaalde prestaties dienen opnieuw geevalueerd te worden elke keer dat een model opnieuw wordt getraind, om zo te garanderen dat de performance toerijkend is. Op de plekken waar het model niet correct is, worden handmatige correcties toegepast.</t>
-  </si>
-  <si>
-    <t>Er word gestuurd op minimalisatie van de duur van de akteverwerking.</t>
+    <t>De verwachte prestaties van de modellen verschillen per taak. Wij verwachten dezelfde performance te halen als op onze test-set. De test-set bevat een selectie veldwerken, die kenmerkend zijn voor ons archief. We evalueren de behaalde prestaties opnieuw als we een model trainen. Zo garanderen wij dat de performance voldoende is. Is het model niet correct? Dan passen we dit handmatig aan.</t>
+  </si>
+  <si>
+    <t>We willen graag dat de akte zo snel mogelijk verwerkt wordt. Daar sturen wij op.</t>
+  </si>
+  <si>
+    <t>We willen graag dat de akte zo snel mogelijk verwerkt wordt. Daar sturen wij op.
+De geautomatiseerde controle moet voldoen aan een norm: 99,5% van de akten moet volledig en correct zijn verwerkt.</t>
   </si>
   <si>
     <t>Ministerie van Binnenlandse Zaken en Koninkrijkrelaties, Rijksdienst voor Identiteitsgegevens</t>
@@ -3594,7 +3671,7 @@
     <t>Ministerie van Binnenlandse Zaken en Koninkrijkrelaties</t>
   </si>
   <si>
-    <t xml:space="preserve">Opdrachtgever van een landinrichtingsproject. Meestal is dit de provincie. Soms doet het Kadaster ook zelf onderzoek. </t>
+    <t>Dit is de opdrachtgever van een landinrichtingsproject. Meestal is dit de provincie. Soms doet het Kadaster ook zelf onderzoek.</t>
   </si>
   <si>
     <t>Paspoortwet artikel 3 lid 2 geeft aan dat een reisdocument is voorzien van de gezichtsopname;
@@ -3654,25 +3731,30 @@
 UAVG art. 29, in voorliggende situatie is authenticatie noodzakelijk </t>
   </si>
   <si>
-    <t>Bijwerking vindt plaats als bijhouding dan wel als vernieuwing (art. 53). Artikel 74 Kadasterwet bepaalt dat in bij algemene maatregel van bestuur te bepalen gevallen, het Kadaster bevoegd is te onderzoeken of gegevens die zijn opgenomen in de basisregistratie kadaster juist en volledig zijn. Artikel 23 Kadasterbesluit regelt dat een onderzoek van vernieuwing kan worden ingesteld indien gegevens niet voldoende juist en volledig zijn. Omdat dit niet het geval is bij KKN wordt momenteel gewerkt aan een aanpassing van artikel 23 zodat de aanleiding "niet voldoende juist en volledig" aangepast wordt. Door de met de KKN beoogde aanpassingen in de registratie wel onder de noemer van ‘vernieuwing’ te brengen, zullen op de door de bewaarder vast te stellen aanpassingen de bij vernieuwing bestaande waarborgen van voorafgaande informatie aan belanghebbenden en de mogelijkheid van bezwaar van toepassing zijn.</t>
-  </si>
-  <si>
-    <t>Artikel 2a, lid c Kadasterwet:  een doelmatige informatievoorziening van de overheid ten behoeve van de goede vervulling van publiekrechtelijke taken en de nakoming van wettelijke verplichtingen door bestuursorganen.</t>
-  </si>
-  <si>
-    <t>in de uitvoeringsfase de WILG</t>
-  </si>
-  <si>
-    <t>Artikel 3, lid 1a Kadasterwet: het houden en bijwerken van de basisregistratie kadaster;</t>
+    <t xml:space="preserve">In artikel 74  Kadasterwet &lt;https://wetten.overheid.nl/jci1.3:c:BWBR0004541&amp;hoofdstuk=4&amp;titeldeel=1&amp;afdeling=3&amp;artikel=74&gt; staat dat het Kadaster mag onderzoeken of gegevens uit de basisregistratie kadaster juist en volledig zijn. In artikel 23 Kadasterbesluit &lt; https://wetten.overheid.nl/BWBR0005259/2019-07-01/#Hoofdstuk3_Titeldeel4_Artikel23 &gt; staat dat er een onderzoek van vernieuwing mag worden gedaan, als blijkt dat gegevens niet voldoende juist en volledig zijn. Er is dus nog geen wettelijke grondslag of basis voor de Kadastrale Kaart Next. Daarom willen we artikel 23 aanpassen. Zo kunnen we een stap verder gaan en de Kadastrale kaart vernieuwen.
+</t>
+  </si>
+  <si>
+    <t>In artikel 2a lid c Kadasterwet &lt;https://wetten.overheid.nl/BWBR0004541/2021-07-01/#Hoofdstuk1_Artikel2a&gt;  staat:  “een doelmatige informatievoorziening van de overheid ten behoeve van de goede vervulling van publiekrechtelijke taken en de nakoming van wettelijke verplichtingen door  bestuursorganen”. 
+Kortom, wij willen onze informatie beschikbaar maken voor een zo groot mogelijk publiek. Dus ook aan burgers.</t>
+  </si>
+  <si>
+    <t>Dit is in de uitvoeringsfase Dit is in de uitvoeringsfase de Wilg. Lees meer op de pagina pagina Verkavelen met de Wilg &lt;https://www.kadaster.nl/zakelijk/producten/advies/verkavelen-met-de-wilg&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volgens  artikel 3 lid 1a Kadasterwet &lt; https://wetten.overheid.nl/BWBR0004541/2021-07-01/#Hoofdstuk1_Artikel3&gt; is het onze wettelijke taak om de Basisregistratie Kadaster te beheren en bij te werken. Daar helpt Akte AI bij. </t>
+  </si>
+  <si>
+    <t>Volgens artikel 3 lid 1a Kadasterwet &lt;https://wetten.overheid.nl/BWBR0004541/2021-07-01/#Hoofdstuk1_Artikel3&gt; is het onze wettelijke taak om de Basisregistratie Kadaster te beheren en bij te werken. Daar helpt dit algoritme bij.</t>
   </si>
   <si>
     <t>niet aanwezig</t>
   </si>
   <si>
-    <t>DPIA is momenteel onderdeel van de DPIA voor akteverwerking</t>
-  </si>
-  <si>
-    <t>geen persoonsgegevens gebruikt</t>
+    <t>Er is geen eigen DPIA. Wel is Akte AI onderdeel van de DPIA voor akteverwerking.</t>
+  </si>
+  <si>
+    <t>Er is geen DPIA nodig, want we gebruiken geen persoonsgegevens.</t>
   </si>
   <si>
     <t>De ondersteuning door het algoritme kan onderbouwt worden door wet- en regelgeving, waaronder de Paspoortwet en Algemene Verordening Gegevensbescherming. Het algoritme voorziet in een kwaliteitscontrole op de pasfoto die op het reisdocument wordt geplaatst, om de kans te vergroten dat deze geschikt is voor visuele identificatie door bevoegde instanties. Het algoritme ondersteunt de inspectie op de fotokwaliteit door de ambtenaar die deze hierdoor efficiënter de kan beoordelen. Het is daarbij van belang op te merken dat het algoritme niet gericht is op directe of indirecte identificatie van een natuurlijk persoon of het verwerken van persoonsgegevens. De pasfoto wordt verwerkt om vast te stellen dat de foto op de aspecten positionering en afmeting van voldoende kwaliteit is. Er kan goed beheer en daarmee controle uitgevoerd worden door RvIG op het algoritme.</t>
@@ -3690,28 +3772,36 @@
 Het geautomatiseerd verwerken van een foto met als doel unieke identificatie betekent dat er volgens de AVG een bijzondere categorie van persoonsgeven verwerkt wordt. Daarom wordt voor deze uitbreiding op het proces van inschrijving in de RNI een aanvullende gegevensverwerkingseffectbeoordeling uitgevoerd. </t>
   </si>
   <si>
-    <t>Op de traindata (de veldwerken) staan soms persoonsgegevens maar die worden niet gebruikt. Deze worden niet gevectoriseerd of ergens opgeslagen in een database. De opgeslagen data kan alleen uit cijfers bestaan.</t>
-  </si>
-  <si>
-    <t>geen aanvullende aandachtspunten op basis van akteAI</t>
+    <t xml:space="preserve">We gebruiken veldwerken om het algoritme te ‘trainen’. Op deze veldwerken staan soms persoonsgegevens, maar die worden niet gebruikt. Deze gegevens worden niet omgezet naar een vectorbestand. Dit is een bepaald formaat, waarin we geometrische gegevens kunnen opslaan. Verder worden de gegevens uit de veldwerken opgeslagen in een database. De opgeslagen data bestaat alleen uit cijfers.
+</t>
+  </si>
+  <si>
+    <t>Er zijn geen aanvullende aandachtspunten voor Akte AI.</t>
   </si>
   <si>
     <t xml:space="preserve">Output gaat alleen naar gemeenten en heeft een signalerende functie. Gemeente bepaalt zelf of zij al dan niet wijzigingen/correcties willen/kunnen aanbrengen in de gegevens rekening houdend met de voorschriften uit de van toepassing zijnde wet- en regelgeving. </t>
   </si>
   <si>
-    <t>De belangen van burgers worden geborgd door wetgeving.</t>
-  </si>
-  <si>
-    <t>Geen bezwaar mogelijk. AkteAI ondersteunt de wettelijke taak van het Kadaster van bijhouding van de basisregistratie Kadaster.</t>
-  </si>
-  <si>
-    <t>Geen bezwaar mogelijk.  Rechtsfeiten KIK 2e deel ondersteunt de wettelijke taak van het Kadaster van bijhouding van de basisregistratie Kadaster.</t>
+    <t xml:space="preserve">Wetgeving beschermt de belangen van burgers.
+</t>
+  </si>
+  <si>
+    <t>Zijn de gegevens uit de akten gecontroleerd en verwerkt in de Basisregistratie Kadaster? Dan krijgt de betrokkene een kennisgeZijn de gegevens uit de akten gecontroleerd en verwerkt in de Basisregistratie Kadaster? Dan krijgt de betrokkene een kennisgeving. Als gegevens niet juist zijn, dan is er een terugmeldprocedure. Kijk voor meer informatie op de pagina Fout in registratie melden (terugmelding doen) &lt;https://www.kadaster.nl/fout-in-registratie-melden-terugmelding-doen&gt;.</t>
+  </si>
+  <si>
+    <t>Zijn de gegevens uit de akten gecontroleerd en verwerkt in de Basisregistratie Kadaster? Dan krijgt de betrokkene een kennisgeving. Als gegevens niet juist zijn, dan is er een terugmeldprocedure.  Kijk voor meer informatie op de pagina Fout in registratie melden (terugmelding doen) &lt;https://www.kadaster.nl/fout-in-registratie-melden-terugmelding-doen&gt;.</t>
   </si>
   <si>
     <t>Metadatstandaard 0.2.1</t>
   </si>
   <si>
-    <t>Metadatastandaard 0.2</t>
+    <t>beschrijving volgens https://standaard.algoritmeregister.org/</t>
+  </si>
+  <si>
+    <t>beschrijving volgens  https://standaard.algoritmeregister.org/</t>
+  </si>
+  <si>
+    <t>beschrijving conform https://standaard.algoritmeregister.org/</t>
   </si>
   <si>
     <t>volgt</t>
@@ -3720,7 +3810,7 @@
     <t>info@rvig.nl</t>
   </si>
   <si>
-    <t>algoritmen@kadaster.nl</t>
+    <t>https://formulieren.kadaster.nl/contact_kadaster_algoritmeregister</t>
   </si>
   <si>
     <t>Nederland</t>
@@ -3729,7 +3819,7 @@
     <t>TVL Risicomodel</t>
   </si>
   <si>
-    <t>Rijksdienst voor Ondernemend Nederland (RVO)</t>
+    <t>Ministerie van Economische Zaken en Klimaat, Rijksdienst voor Ondernemend Nederland</t>
   </si>
   <si>
     <t>Kernprocessen NL (KPNL) \ Project- en Organisatiefinanciering (PROF)</t>
@@ -3751,7 +3841,7 @@
   </si>
   <si>
     <t xml:space="preserve">De inzet van het algoritme bij TVL-aanvragen zorgt ervoor dat de aanvragen van ondernemers snel en doelmatig afgehandeld kunnen worden. Het grootste deel van de ondernemers heeft het geld snel op de rekening staan.
-Het algorimte zorgt ervoor dat laag-risico aanvragen meteen geautomatiseerd verleend of vastgesteld kunen worden.
+Het algoritme zorgt ervoor dat laag-risico aanvragen meteen geautomatiseerd verleend of vastgesteld kunen worden.
 Wanneer een aanvraag uitvalt naar handmatige controle, moet een medewerker de aanvraag beoordelen. In dat geval duurt het langer voordat er een beslissing wordt genomen over de tegemoetkoming, met als gevolg dat het geld later op de rekening van de ondernemer staat. </t>
   </si>
   <si>
@@ -3865,7 +3955,7 @@
     <t>WW, uitkering</t>
   </si>
   <si>
-    <t>Risicoscan Verblijf Buiten Nederland | UWV | Over UWV</t>
+    <t>https://www.uwv.nl/nl/over-uwv/organisatie/algoritmeregister-uwv/risicoscan-verblijf-buiten-nederland</t>
   </si>
   <si>
     <t>https://www.uwv.nl/overuwv/algoritmes-bij-uwv/klantapplicatie-ww.aspx</t>
@@ -4111,14 +4201,13 @@
     <t>Berekenen huurtoeslag</t>
   </si>
   <si>
-    <t>Toeslagen</t>
+    <t>Ministerie van Financiën</t>
   </si>
   <si>
     <t>Dienst Toeslagen</t>
   </si>
   <si>
-    <t>Het algoritme huurtoeslag  berekent de hoogte op basis van gegevens over de aanvrager en de huurwoning. Hierbij worden de huurtoeslagregels toegepast.
-https://toeslagen-aanvraag.nl/huurtoeslagregels-2023/</t>
+    <t>Het algoritme huurtoeslag  berekent de hoogte op basis van gegevens over de aanvrager en de huurwoning. Hierbij worden de huurtoeslagregels toegepast.</t>
   </si>
   <si>
     <t>De inzet van het algoritme heeft als doel:
@@ -4138,17 +4227,16 @@
   </si>
   <si>
     <t>Informatie over  huurtoeslag is gepubliceerd op:
-https://toeslagen-aanvraag.nl/huurtoeslag/</t>
-  </si>
-  <si>
-    <t>Burgers kunnen huurtoeslag aanvragen voor het adres waarop zij volgens de BasisRegistratie Personen (BRP) op het moment van de aanvraag zijn ingeschreven. Bij de aanvraag geeft hij of zij door: 
+https://www.belastingdienst.nl/wps/wcm/connect/nl/huurtoeslag/huurtoeslag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burgers kunnen huurtoeslag aanvragen voor het adres waarop zij volgens de BasisRegistratie Personen (BRP) op het moment van de aanvraag zijn ingeschreven. Bij de aanvraag geeft hij of zij door: 
 1) de gegevens van een eventuele partner of medebewoners die onderdeel uitmaken van het huishouden,
 2) de huurprijs en 
 3) het (geschatte) inkomen en vermogen per lid van het huishouden. 
 Omdat precieze huishoudsamenstelling niet altijd overeenkomt met de basisregistratie personen (BRP), huurprijs en/of (gezamenlijk) inkomen niet altijd actueel zijn, worden redelijkheidscontroleregels toegepast om zowel burgers, als de uitvoerder te behoeden voor onbedoelde fouten en de mogelijke consequenties daarvan.
 In specifieke situaties vindt een uitworp van de aanvraag plaats en volgt een handmatige behandeling (zie menselijke tussenkomst) .
-Zie ook de huurtoeslagregels: 
-https://toeslagen-aanvraag.nl/huurtoeslagregels-2023/</t>
+</t>
   </si>
   <si>
     <t>Het algoritme huurtoeslag maakt onderdeel uit van de huurtoeslagtoepassing (applicatie). Deze is gekoppeld aan de basisregistratie personen (BRP), basisregistratie gebouwen (BAG) en de basisregistratie Inkomen (BRI) en gebruikt de gegevens die daar bekend zijn.</t>
@@ -4170,8 +4258,11 @@
   <si>
     <t>De wettelijke grondslag is vastgelegd in de Wet op de huurtoeslag: (https://wetten.overheid.nl/BWBR0008659/2022-01-01).
 In de Algemene wet inkomensafhankelijke regelingen (AWIR) staat de toezicht en controle taak voor Dienst Toeslagen genoemd. 
-(https://www.belastingdienst.nl/wps/wcm/connect/bldcontentnl/belastingdienst/intermediairs/toeslagen_intermediairs/wetgeving_over_toeslagen/wetgeving_over_toeslagen)
+(https://www.belastingdienst.nl/wps/wcm/connect/bldcontentnl/belastingdienst/intermediairs/toeslagen/wetgeving/wetgeving)
 Daarnaast is de Algemene Verordening Gegevensbescherming (AVG) van toepassing op de inzet van het algoritme huurtoeslag door Dienst Toeslagen.</t>
+  </si>
+  <si>
+    <t>ja</t>
   </si>
   <si>
     <t>Door het algoritme worden bedrijfsregels geautomatiseerd afgehandeld. Een uitworp door het algoritme van een aanvraag ontstaat als er sprake is van:
@@ -4185,14 +4276,240 @@
     <t>Mijn toeslag klopt niet moet ik bezwaar maken:
 https://www.belastingdienst.nl/wps/wcm/connect/nl/toeslagen/content/mijn-toeslag-klopt-niet
 Veel gestelde (FAQ-) vragen zijn opgenomen op:
-https://toeslagen-aanvraag.nl/faq/</t>
-  </si>
-  <si>
-    <t>Metadatastandaard 0.2.1</t>
+https://www.belastingdienst.nl/wps/wcm/connect/nl/huurtoeslag/huurtoeslag</t>
   </si>
   <si>
     <t>Specifieke vragen die betrekking hebben op het algoritme kunnen gesteld worden aan:
  CIO.Office.DG.Toeslagen@toeslagen.nl</t>
+  </si>
+  <si>
+    <t>Ontdooiverzoeken</t>
+  </si>
+  <si>
+    <t>RVO-meldingen</t>
+  </si>
+  <si>
+    <t>Anonimiseren</t>
+  </si>
+  <si>
+    <t>Publiceren</t>
+  </si>
+  <si>
+    <t>Deelzaken starten Arbeidsinspectie ILT</t>
+  </si>
+  <si>
+    <t>OD Besluit</t>
+  </si>
+  <si>
+    <t>Omgevingsdienst Noordzeekanaalgebied</t>
+  </si>
+  <si>
+    <t>Proces &amp; Informatie</t>
+  </si>
+  <si>
+    <t>Milieu en Leefomgeving</t>
+  </si>
+  <si>
+    <t>Regiebureau</t>
+  </si>
+  <si>
+    <t>Milieu en Industrie</t>
+  </si>
+  <si>
+    <t>Regulering en Expertise</t>
+  </si>
+  <si>
+    <t>Op verzoek van de medewerker tijdelijk de zaak beschikbaar stellen voor het op orde brengen van de administratie.</t>
+  </si>
+  <si>
+    <t>Binnengekomen RVO-meldingen worden gekoppeld aan de juiste inrichting in Mozard.</t>
+  </si>
+  <si>
+    <t>Zwart lakken van AVG-gevoelige informatie in documenten.</t>
+  </si>
+  <si>
+    <t>Het publiceren van binnengekomen aanvragen, meldingen en genomen besluiten op officielebekendmakingen.nl en op de eigen website Omgevingsdienst Noordzeekanaalgebied.nl</t>
+  </si>
+  <si>
+    <t>Het starten van deelzaken 'Adviesverzoek extern uitzetten' bij Waboprocedures.</t>
+  </si>
+  <si>
+    <t>Documentnummer en link naar besluit toevoegen aan registratie OD Besluit in Mozard</t>
+  </si>
+  <si>
+    <t>Administratieve taak van het ontdooien zaken overnemen van de medewerker.</t>
+  </si>
+  <si>
+    <t>Adminitratieve taak van het koppelen van de melding aan de inrichting in Mozard overnemen van de medewerker.</t>
+  </si>
+  <si>
+    <t>De OD wil graag transparant zijn naar de omgeving maar moet ook voldoen aan privacy-wetgeving. De inzet van NLP-software maakt dit mogelijk, zonder dat dit te veel inzet van medewerkers kost.</t>
+  </si>
+  <si>
+    <t>De OD NZKG is wettelijk verplicht om kennisgevingen van binnengekomen meldingen en aanvragen te publiceren. Daarnaast moeten besluiten openbaar gemaakt worden zodat belanghebbenden er kennis van kunnen nemen en bezwaar/beroep kunnen indienen. Met behulp van DIVA wordt deze repetetieve handeling geautomatiseerd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Om te voldoen aan wet- en regelgeving moet de OD NZKG bij elke Wabo-zaak een adviesverzoek doen bij de ILT en de aanvraag ter informatie aanbieden aan de Arbeidsinspectie. Het automatiseren van dit proces heeft als primair doel het geven van een kwaliteitsimpuls: het starten van de deelzaken wordt bij handmatig uitvoeren nog wel eens vergeten. Daarnaast levert de automatisering een tijdsbesparing op, waardoor vergunningverleners meer tijd overhouden voor inhoudelijk werk. </t>
+  </si>
+  <si>
+    <t>Administratieve taak van het koppelen van het besluitdocument aan de registratie OD Besluit in Mozard uitvoeren in plaats van dat het handmatig door de medewerker gedaan moet worden.</t>
+  </si>
+  <si>
+    <t>Deze DIVA werkt alleen intern en heeft daarom geen impact op de omgeving.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gepubliceerde documenten zijn geanonimiseerd. Deze automatisering bepaalt dus feitelijk wat burgers wel en wat ze niet te lezen krijgen. </t>
+  </si>
+  <si>
+    <t>De publicaties worden geautomatiseerd op- en samengesteld op dagelijkse basis. Daar zit geen verschil in met handmatige publicaties. Er worden daarom ook geen consequenties voorzien.</t>
+  </si>
+  <si>
+    <t>Bij de Wabo-vergunningsprocedure worden de Arbeidsinspectie en ILT al vroeg in het proces in de gelegenheid gesteld advies te geven. Als er iets fout gaat met de automatisering, heeft dat daarmee invloed op de kans die deze organen hebben om hun advies uit te brengen.</t>
+  </si>
+  <si>
+    <t>Medewerkers gebruiken OD Besluit als ingang om de genomen besluiten overzichtelijk te raadplegen.
+OD Besluit wordt ontsloten op de website van de OD via de GISviewer. Burgers kunnen deze kaart raadplegen wanneer zij op zoek zijn naar besluiten die de OD genomen heeft. Door inzet van DIVA zijn de besluiten beschikbaar voor inzage.</t>
+  </si>
+  <si>
+    <t>Verzoeken van medewerkers worden geautomatiseerd en sneller afgehandeld.
+Administratieve taken worden verminderd.
+Als een zaak niet goed wordt ontdooid  levert dat een vertraging op bij de administratie van de aanvrager en eventueel wat frustratie. Verder heeft het geen risico's voor de omgeving; de zaak is al afgehandeld en aan eventuele termijnen is al (niet) voldaan.
+De risico's worden als erg laag ingeschat. Daarom zijn de verwachte baten een stuk groter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administratieve taken worden verminderd.
+Wanneer de zaak foutief of niet wordt gekoppeld levert dit werk op voor de toezichthouder, om het te corrigeren. Iedere zaak wordt handmatig behandeld vanaf status 3; er vindt dus altijd een menselijke check plaats. Daarom zijn er verder geen risico's. 
+De vermindering in adminstratieve taken is bestaat zolang het proces vaak genoeg goed gaat. </t>
+  </si>
+  <si>
+    <t>Met de inzet van deze automatisering wordt bij schatting 6 FTE uitgespaard. 
+1. Er is een foutmarge. Tussen de 1 tot 5% van de zwarte balkjes wordt vergeten.
+2. Er kan geen onderscheid gemaakt worden tussen minder en meer gevoelige dossiers.
+Het inhuren van 6 FTE voor handmatig anonimiseren is zo duur dat gekozen is voor de automatische wijze en bijbehorende risico's.</t>
+  </si>
+  <si>
+    <t>De publicaties worden elke ochtend uitgevoerd waardoor de medewerkers zich kunnen richten op andere taken, dit betreft circa 3 FTE inzet. Er zijn veel verschillende soorten publicaties met bijkomend risico op fouten. Door automatisering vindt de publicatie altijd volgens dezelfde vaste regels plaats, dus is de tekst van gelijksoortige publicaties altijd hetzelfde.
+DIVA verwerkt de door de medewerkers klaargezette publicaties. Als deze foutief worden klaargezet, wordt dit niet in het publicatieproces hersteld. Er zijn wel diverse controles bij de start van het proces ingebouwd om te zorgen dat benodigde informatie voor de publicatie compleet is.
+Aangezien er een menselijke controle aan de voorkant zit, levert het inzetten op kwaliteit een meerwaarde op voor de OD en daarmee de omgeving.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Door automatisering kan het uitzetten van de deelzaken niet meer worden vergeten door een van de vergunningverleners. Verwacht wordt daarom dat het aantal niet-gedane verzoeken/ niet-aangeboden aanvragen zal afnemen.
+Ook wanneer de deelzaken geautomatiseerd worden gestart, bestaat de kans dat dit misgaat en het verzoek/ de aanvraag niet verstuurd wordt. Dit heeft als gevolg dat de organen die worden aangschreven niet genoeg tijd hebben/ niet de gelegenheid krijgen om hun advies uit te brengen.
+De verwachting is dat er bij geautomatiseerde adviesverzoeken minder deelzaken worden overgeslagen dan bij het handmatig starten van deze deelzaken. </t>
+  </si>
+  <si>
+    <t>De inzet van DIVA scheelt per besluit naar schatting 8 minuten administratief werk. Elke maand worden er zo'n 50 besluiten genomen. Dit betekent een totaal van circa 7 uur per maand.
+Het risico bestaat dat er geen of een onjuist besluitdocument wordt gekoppeld aan de registratie. Bij menselijk handelen kan hier hier nog een check op plaatsvinden, echter, bij geautomatiseerd handelen kan dit niet. Hierdoor krijgen burgers en/of OD-medewerkers eventueel geen of het verkeerde document te zien. 
+Als het juiste document in de zaak staat, wordt ook het juiste document gekoppeld. Er zijn verschillende checks om ervoor te zorgen dat het juiste besluitdocument in de zaak staat (collegiale toets, goedkeuring door de manager). De kans op een verkeerd document is zeer klein (bij een steekproef van 35 documenten 100% score). Hiermee zijn de baten groter dan het geschatte risico.</t>
+  </si>
+  <si>
+    <t>Woo, verplichte publicaties</t>
+  </si>
+  <si>
+    <t>Publicaties voor Wabo, meldingen Activiteitenbesluit, BUS-meldingen</t>
+  </si>
+  <si>
+    <t>De volgende wetgeving verplicht ons tot het doen van de adviesvrzoeken:
+Art. 2.26 lid 3 Wabo
+Art. 6.3 lid 2 Bor
+Art. 6.15 lid 2 or</t>
+  </si>
+  <si>
+    <t>Wabo-vergunningverleningsprocessen</t>
+  </si>
+  <si>
+    <t>Soms moeten collega’s nog dingen wijzigen in zaken die al bevroren zijn, bijv. documenten toevoegen, mails versturen, etc.. Via een ontdooiverzoek kunnen deze collega’s bij P&amp;I aangeven welke zaak hiervoor tijdelijk ontdooid moet worden. DIVA neemt het afhandelen van deze ontdooiverzoeken van P&amp;I over. Dit bestaat uit het ontdooien van de zaak en het versturen van een mail naar de aanvrager. Na zeven dagen check DIVA of Mozard de zaak weer vanzelf bevroren heeft. Is dit niet het geval, dan wordt dit alsnog gedaan.</t>
+  </si>
+  <si>
+    <t>Veel bedrijven zijn verplicht te melden wat zij doen om energie te besparen. De meldingen komen via het RVO en voor elke melding is een zaak aangemaakt. Deze zaken en meldingen horen in de meeste gevallen bij een reeds in Mozard bestaande inrichting. DIVA zorgt ervoor dat deze zaken vast gekoppeld worden. Zo hoeven de toezichthouders alleen nog te zorgen dat er een inrichting wordt opgevoerd bij zaken waarbij er nog geen inrichting bestaat. De toezichthouder gaat bij elke zaak daarna verder met de inhoudelijke behandeling.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aan de hand van NLP-software worden privacygevoelige termen in documenten zwartgelakt. Deze software is niet in eigen beheer; wij kopen deze in bij het bedrijf TM7. Samen met TM7 wordt bepaald welke regels er gehanteerd worden. </t>
+  </si>
+  <si>
+    <t>Publicaties die zijn toegewezen aan DIVA worden zowel op officielebekendmakingen.nl en op de eigen website Omgevingsdienst Noordzeekanaalgebied.nl gepubliceerd met alle bijbehorende teksten, zoals soort publicatie, bezwaar- en beroepsmogelijkheden, etc.. Het betreft aanvragen, meldingen en besluiten die ingediend zijn bij  of genomen zijn door de Omgevingsdienst Noordzeekanaalgebied.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Met dit proces worden bij zaken voor Wabo-regulier- en Wabo-uitgebreid deelzaken 'Adviesverzoek extern uitzetten' gestart voor het ter informatie aanbieden van de aanvraag aan de Nederlandse Arbeidsinspectie en een adviesverzoek aan de Inspectie Leefomgeving en Transport. </t>
+  </si>
+  <si>
+    <t>Van alle Wabo-besluiten die genomen worden, wordt een registratie aangemaakt waardoor medewerkers en burgers inzicht kunnen verkrijgen welke door de OD genomen besluiten op een locatie gelden. Hiervoor wordt bij het afhandelen van een vergunningzaak een registratie opgevoerd. Als administratieve lastenverlichting voor de medewerker in combinatie met kwaliteitsverbetering wordt vervolgens geautomatiseerd het bijbehorende document aan deze registratie gekoppeld.</t>
+  </si>
+  <si>
+    <t>Na afloop van de verwerking wordt een logmail gestuurd naar de informatieadviseurs en procesbeheerders die informatie bevat over de behandelde verzoeken. Aan de hand van deze logmails (die de behandelde zaaknummers bevatten) kan gecheckt worden of alles goed is gegaan.</t>
+  </si>
+  <si>
+    <t>Na afloop van de verwerking wordt een logmail gestuurd naar de toezichthouders met informatieover de behandelde zaken. Aan de hand van deze logmails (die de behandelde zaaknummers bevatten) kan gecheckt worden of alles goed is gegaan.</t>
+  </si>
+  <si>
+    <t>Aan de hand van steekproeven wordt bijgehouden wat de kwaliteit van de software is. Hierbij wordt geteld hoeveel zwarte balkjes er gemist zijn en hoeveel privacygevoelige informatie er dus onterecht gepubliceerd is.</t>
+  </si>
+  <si>
+    <t>Na afloop van de verwerking wordt een logmail gestuurd naar de medewerkers van het Regiebureau met informatie over de behandelde zaken. Aan de hand van deze logmails (die de behandelde zaaknummers bevatten) kan gecheckt worden of alles goed is gegaan.</t>
+  </si>
+  <si>
+    <t>Na afloop van de verwerking wordt een logmail gestuurd naar de vergunningverleners met informatieover de behandelde zaken. Aan de hand van deze logmails (die de behandelde zaaknummers bevatten) kan gecheckt worden of alles goed is gegaan.</t>
+  </si>
+  <si>
+    <t>Na afloop van de verwerking wordt een logmail gestuurd naar de key-users van vergunningverlening met informatieover de behandelde zaken. Aan de hand van deze logmails (die de behandelde zaaknummers bevatten) kan gecheckt worden of alles goed is gegaan.</t>
+  </si>
+  <si>
+    <t>Indien uit logging blijkt dat het proces niet goed verlopen is, wordt dit door de medewerker hersteld. Fouten die niet uit de logging volgen, worden gesignaleerd door de indiener van het verzoek en herstelt door de medewerker. Indien nodig wordt DIVA aangepast om herhaling te voorkomen.</t>
+  </si>
+  <si>
+    <t>Elke zaak wordt inhoudelijk behandeld door een toezichthouder. Daardoor wordt elke zaak automatisch ook gemonitord; bij deze inhoudelijke behandeling komen fouten vanzelf bovendrijven.</t>
+  </si>
+  <si>
+    <t>Bij gevoelige zaken kan er een controle plaats vinden nadat er geautomatiseerd geanonimiseerd is. Hierbij vindt er dan een 100% controle plaats.</t>
+  </si>
+  <si>
+    <t>Alleen publicaties die aan afgesproken voorwaarden voldoen, worden door medewerkers toegewezen aan DIVA. Daarbij kan dus vooraf bepaald worden dat het risico voor geautomatiseerde verwerking te groot is en kan worden gekozen voor handmatige verwerking.</t>
+  </si>
+  <si>
+    <t>Bij de inhoudelijke behandeling van de Waboprocedure kan de vergunningverlener altijd nalopen of de juiste deelzaken zijn uitgezet. Fouten kunnen zo worden geconstateerd en hersteld.</t>
+  </si>
+  <si>
+    <t>Indien DIVA geen besluit kan vinden of als er meerdere documenten met dezelfde kenmerken in een zaak aanwezig zijn, zal DIVA een melding geven dat vóór verdere afhandeling eerst de medewerker het dossier op orde moet maken.</t>
+  </si>
+  <si>
+    <t>Het kan dat door een programeerfout een ontdooiverzoek niet goed behandeld wordt. Dit heeft als gevolg dat de aanvrager langer moet wachten met dat wat hij/zij moet wijzigen in de reeds bevroren zaak. Naast vertraging en eventuele frustratie bij de collega heeft dit geen gevolgen; de zaak is al afgehandeld en aan eventuele termijnen is al (niet) voldaan.</t>
+  </si>
+  <si>
+    <t>Het enige risico is dat de toezichthouder alsnog de koppeling handmatig moet uitvoeren.</t>
+  </si>
+  <si>
+    <t>De software functioneert niet 100%. Dit betekent dat er hier en daar privacygevoelige informatie niet wordt zwartgelakt en niet-privacygevoelige informatie wél wordt zwartgelakt. De risico's zijn dan ook ofwel het openbaar maken van informatie wat niet zou mogen, of juist niet openbaar maken van informatie, wat wel zou moeten.</t>
+  </si>
+  <si>
+    <t>Alleen aan DIVA toegewezen publicaties worden afgehandeld, daarmee wordt voorkomen dat publicaties opgepakt worden voordat controle heeft plaatsgevonden. Daarbij start automatische verwerking met een aantal controles om de volledigheid van de publicatie voor verwerking te controleren.</t>
+  </si>
+  <si>
+    <t>Bij fouten voldoet de OD NZKG niet aan wet- en regelgeving.</t>
+  </si>
+  <si>
+    <t>De automatisering wordt zo ingericht dat alleen verwerking plaatsvindt indien er één document voldoet aan de voorwaarden om toe te voegen aan de registratie. In alle andere gevallen wordt een medewerker ingeschakeld. Het enige risico wat daarmee overblijft is dat dit ene document niet het juiste is, maar de achterliggende oorzaak daarvan is een menselijke fout.</t>
+  </si>
+  <si>
+    <t>Nader te bepalen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In de DR is vastgesteld dat de prestaties van de software &gt;95% moeten zijn. Dat betekent dat er niet meer dan 5% zwarte balkjes  vergeten mogen worden. Aan de hand van een steekproef worden de prestaties bijgehouden.
+</t>
+  </si>
+  <si>
+    <t>&gt;90% geautomatiseerd verwerkt.</t>
+  </si>
+  <si>
+    <t>N.v.t</t>
+  </si>
+  <si>
+    <t>N.v.t.</t>
+  </si>
+  <si>
+    <t>0.2.3</t>
+  </si>
+  <si>
+    <t>Noordzeekanaalgebied</t>
   </si>
   <si>
     <t>Gladheid meldsysteem</t>
@@ -4264,9 +4581,6 @@
   </si>
   <si>
     <t>Voor elk kruispunt met iVRI's wordt een specifiek algoritme gemaakt door verschillende leveranciers. Deze informatie is nu (nog) niet beschikbaar.</t>
-  </si>
-  <si>
-    <t>N.v.t.</t>
   </si>
   <si>
     <t>De data die gebruikt wordt is de sensordata van de meetpunten:
@@ -4354,7 +4668,7 @@
     <t>De Impactmonitor Brugopeningen is een beslissingsondersteunende webapplicatie die brugbedieners ondersteunt bij het kiezen van het optimale moment voor een brugopening. Er wordt rekening gehouden met de verkeersdoorstroom en de uitstoot (CO2 voetafdruk). De applicatie is uitgerust om de verkeersdrukte tot 21 minuten vooruit te voorspellen in combinatie met actuele (real-time) verkeerinformatie.</t>
   </si>
   <si>
-    <t xml:space="preserve">De verkeersmanagers willen voorspelbaar onderhoud aan de weg kunnen plannen op basis van de werkbare uren. Om onderhoud te kunnen plegen, moeten er verkeersmaatregelen worden genomen (in de vorm van gedeeltelijke wegafsluitingen). Dit kan een een negatief effect hebben op de capaciteit van de weg om verkeer te kunnen verwerken. 
+    <t>De verkeersmanagers willen voorspelbaar onderhoud aan de weg kunnen plannen op basis van de werkbare uren. Om onderhoud te kunnen plegen, moeten er verkeersmaatregelen worden genomen (in de vorm van gedeeltelijke wegafsluitingen). Dit kan een een negatief effect hebben op de capaciteit van de weg om verkeer te kunnen verwerken. 
 Werkbare uren worden bepaald door:
 •de capaciteit van de locatie.
 •het tijdstip (dag, uur).
@@ -4362,7 +4676,8 @@
 •het effect van het type verkeersmaatregel op de capaciteit. 
 Werkbare uren worden nu statisch bepaald. Het doel van deze fase is om te bepalen of we deze werkbare uren data-gedreven kunnen bepalen. 
 De definitie van data-gedreven in deze fase is: maximale capaciteit van de locatie wordt bepaald door daadwerkelijk bemeten intensiteiten (vanuit verkeersdata NDW, met interpolatie) op dezelfde tijdstippen. 
-Aan de hand van historische data kan je met dit algoritme zien welke type afzetting en verkeersmaatregel kan worden toegepast op een weg.  Ook kan je zien welke momenten geschikt zijn. </t>
+Aan de hand van historische data kan je met dit algoritme zien welke type afzetting en verkeersmaatregel kan worden toegepast op een weg.  Ook kan je zien welke momenten geschikt zijn.
+De keuzehulp WBU-tabel wordt mede gebruikt om de WBU-tabel op te stellen. Bij het opstellen van de tool wordt naast de tool ook rekening gehouden met bepaalde afspraken uit het bedrijfsleven en andere beleidskeuzes van PZH.</t>
   </si>
   <si>
     <t>Op basis van beeldherkenning van satellietbeelden en analyses worden veranderingen in natura2000 gebieden inzichtelijk gemaakt en gedetailleerd in kaart gebracht. Dit doen we voor ecologische doeleinden (stikstofbeleid).</t>
@@ -4885,13 +5200,13 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4913,7 +5228,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5201,7 +5516,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6430,8 +6745,8 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" spans="1:26" ht="24.75" customHeight="1">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -6473,8 +6788,8 @@
   <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -6495,7 +6810,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1072</v>
+        <v>1079</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -6529,7 +6844,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -6563,7 +6878,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1074</v>
+        <v>1081</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -6597,7 +6912,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1075</v>
+        <v>1082</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -6755,7 +7070,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" ht="24.75" customHeight="1">
+    <row r="9" spans="1:26" ht="93.75">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
@@ -6763,7 +7078,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1076</v>
+        <v>1083</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -6789,7 +7104,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="24.75" customHeight="1">
+    <row r="10" spans="1:26" ht="93.75">
       <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
@@ -6797,7 +7112,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1077</v>
+        <v>1084</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6823,7 +7138,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="24.75" customHeight="1">
+    <row r="11" spans="1:26" ht="23.25">
       <c r="A11" s="6" t="s">
         <v>0</v>
       </c>
@@ -6831,7 +7146,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1078</v>
+        <v>1085</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -6865,7 +7180,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1079</v>
+        <v>1086</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -6897,7 +7212,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1080</v>
+        <v>1087</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -6929,7 +7244,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1081</v>
+        <v>1088</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -7021,7 +7336,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>1082</v>
+        <v>1089</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -7053,7 +7368,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>1083</v>
+        <v>1090</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -7085,7 +7400,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1084</v>
+        <v>1091</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -7149,7 +7464,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1085</v>
+        <v>1092</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -7181,7 +7496,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1086</v>
+        <v>1093</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -7243,7 +7558,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>1074</v>
+        <v>1081</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -7269,7 +7584,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="24.75" customHeight="1">
+    <row r="25" spans="1:26" ht="164.25">
       <c r="A25" s="6" t="s">
         <v>0</v>
       </c>
@@ -7277,7 +7592,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>1087</v>
+        <v>1094</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -7369,8 +7684,8 @@
       <c r="B28" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>360</v>
+      <c r="C28" s="11" t="s">
+        <v>1095</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -7402,7 +7717,7 @@
         <v>29</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>1088</v>
+        <v>1096</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -7436,7 +7751,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1089</v>
+        <v>1097</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -7467,9 +7782,7 @@
       <c r="B31" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>1090</v>
-      </c>
+      <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -7564,7 +7877,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>1091</v>
+        <v>1098</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -7596,7 +7909,7 @@
         <v>35</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -7741,8 +8054,8 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" spans="1:26" ht="24.75" customHeight="1">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -7777,15 +8090,15 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E5B0DE-D51E-41BF-9BCB-0CE679CAD3FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E941CE-6C8B-4B69-97D9-13303A576051}">
   <sheetPr>
     <tabColor rgb="FF70AD47"/>
   </sheetPr>
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -7806,15 +8119,23 @@
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>1092</v>
+        <v>1099</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>1093</v>
-      </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+        <v>1100</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>1103</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>1104</v>
+      </c>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
@@ -7842,15 +8163,23 @@
         <v>2</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>1094</v>
+        <v>1105</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+        <v>1105</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>1105</v>
+      </c>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
@@ -7878,15 +8207,23 @@
         <v>3</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>1095</v>
+        <v>1106</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+        <v>1107</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>1110</v>
+      </c>
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
       <c r="K3" s="19"/>
@@ -7914,15 +8251,23 @@
         <v>4</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>1096</v>
+        <v>1111</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+        <v>1112</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>1115</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>1116</v>
+      </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
@@ -7950,15 +8295,23 @@
         <v>5</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>1098</v>
+        <v>986</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+        <v>986</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>986</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>986</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>986</v>
+      </c>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
@@ -7985,9 +8338,7 @@
       <c r="B6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>1100</v>
-      </c>
+      <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
@@ -8018,9 +8369,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="19"/>
-      <c r="D7" s="19" t="s">
-        <v>1101</v>
-      </c>
+      <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
@@ -8052,15 +8401,23 @@
         <v>8</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>1102</v>
+        <v>696</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+        <v>696</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>696</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>696</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>696</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>696</v>
+      </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
@@ -8088,15 +8445,23 @@
         <v>9</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>1103</v>
+        <v>1117</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
+        <v>1118</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>1122</v>
+      </c>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
@@ -8124,15 +8489,23 @@
         <v>10</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>1105</v>
+        <v>1123</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>1106</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+        <v>1123</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>1127</v>
+      </c>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
@@ -8160,15 +8533,23 @@
         <v>11</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>1107</v>
+        <v>1128</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+        <v>1129</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>1133</v>
+      </c>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
@@ -8196,15 +8577,23 @@
         <v>12</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>1109</v>
+        <v>389</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>1110</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+        <v>389</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>1135</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>1137</v>
+      </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
@@ -8230,9 +8619,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="19"/>
-      <c r="D13" s="19" t="s">
-        <v>1111</v>
-      </c>
+      <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
@@ -8261,14 +8648,24 @@
       <c r="B14" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="18"/>
+      <c r="C14" s="18" t="s">
+        <v>1138</v>
+      </c>
       <c r="D14" s="18" t="s">
-        <v>1112</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+        <v>1139</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>1143</v>
+      </c>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
@@ -8294,9 +8691,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="19"/>
-      <c r="D15" s="19" t="s">
-        <v>1113</v>
-      </c>
+      <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -8326,9 +8721,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="18"/>
-      <c r="D16" s="18" t="s">
-        <v>1114</v>
-      </c>
+      <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
@@ -8358,15 +8751,23 @@
         <v>17</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
+        <v>389</v>
+      </c>
+      <c r="D17" s="19">
+        <v>0</v>
+      </c>
+      <c r="E17" s="19">
+        <v>0</v>
+      </c>
+      <c r="F17" s="19">
+        <v>0</v>
+      </c>
+      <c r="G17" s="19">
+        <v>0</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>389</v>
+      </c>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
@@ -8391,12 +8792,8 @@
       <c r="B18" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>1116</v>
-      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
@@ -8426,9 +8823,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="19"/>
-      <c r="D19" s="19" t="s">
-        <v>1117</v>
-      </c>
+      <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
@@ -8458,15 +8853,23 @@
         <v>20</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>1118</v>
+        <v>1144</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>1117</v>
-      </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
+        <v>1145</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>1149</v>
+      </c>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
@@ -8494,15 +8897,23 @@
         <v>21</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>1119</v>
+        <v>1150</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>1120</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
+        <v>1151</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>1154</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>1155</v>
+      </c>
       <c r="I21" s="19"/>
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
@@ -8528,15 +8939,23 @@
         <v>22</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>1121</v>
+        <v>1156</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>1122</v>
-      </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
+        <v>1157</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>1161</v>
+      </c>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
@@ -8561,14 +8980,24 @@
       <c r="B23" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="19"/>
+      <c r="C23" s="19" t="s">
+        <v>1162</v>
+      </c>
       <c r="D23" s="19" t="s">
-        <v>1123</v>
-      </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
+        <v>1162</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>1162</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>1164</v>
+      </c>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
@@ -8593,12 +9022,8 @@
       <c r="B24" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>1124</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>1125</v>
-      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
@@ -8630,9 +9055,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="19"/>
-      <c r="D25" s="19" t="s">
-        <v>1126</v>
-      </c>
+      <c r="D25" s="19"/>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
@@ -8727,10 +9150,18 @@
       <c r="D28" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
+      <c r="E28" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>320</v>
+      </c>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
       <c r="K28" s="18"/>
@@ -8756,15 +9187,19 @@
         <v>29</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>1114</v>
+        <v>1165</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>1114</v>
+        <v>1166</v>
       </c>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
+      <c r="G29" s="19" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>1165</v>
+      </c>
       <c r="I29" s="19"/>
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
@@ -8791,10 +9226,10 @@
       <c r="B30" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18" t="s">
-        <v>1127</v>
-      </c>
+      <c r="C30" s="18" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D30" s="18"/>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
@@ -8823,12 +9258,24 @@
       <c r="B31" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
+      <c r="C31" s="19" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>1167</v>
+      </c>
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
@@ -8856,9 +9303,7 @@
         <v>32</v>
       </c>
       <c r="C32" s="18"/>
-      <c r="D32" s="18" t="s">
-        <v>1114</v>
-      </c>
+      <c r="D32" s="18"/>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
@@ -8888,9 +9333,7 @@
         <v>33</v>
       </c>
       <c r="C33" s="19"/>
-      <c r="D33" s="19" t="s">
-        <v>1114</v>
-      </c>
+      <c r="D33" s="19"/>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
@@ -8921,12 +9364,8 @@
       <c r="B34" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="18" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>1128</v>
-      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
@@ -8956,15 +9395,23 @@
         <v>35</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>1129</v>
+        <v>1168</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>1129</v>
-      </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
+        <v>1168</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>1168</v>
+      </c>
       <c r="I35" s="19"/>
       <c r="J35" s="19"/>
       <c r="K35" s="19"/>
@@ -8995,10 +9442,18 @@
       <c r="D36" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
+      <c r="E36" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>164</v>
+      </c>
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
@@ -9023,12 +9478,24 @@
       <c r="B37" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
+      <c r="C37" s="28">
+        <v>44825</v>
+      </c>
+      <c r="D37" s="28">
+        <v>44825</v>
+      </c>
+      <c r="E37" s="28">
+        <v>44817</v>
+      </c>
+      <c r="F37" s="28">
+        <v>44820</v>
+      </c>
+      <c r="G37" s="28">
+        <v>44825</v>
+      </c>
+      <c r="H37" s="28">
+        <v>44893</v>
+      </c>
       <c r="I37" s="19"/>
       <c r="J37" s="19"/>
       <c r="K37" s="19"/>
@@ -9105,8 +9572,8 @@
       <c r="Z39" s="19"/>
     </row>
     <row r="40" spans="1:26" ht="24.75" customHeight="1">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
@@ -9141,7 +9608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E0126E-6BA0-445B-AAD0-129F142674B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E5B0DE-D51E-41BF-9BCB-0CE679CAD3FC}">
   <sheetPr>
     <tabColor rgb="FF70AD47"/>
   </sheetPr>
@@ -9149,7 +9616,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -9170,14 +9637,12 @@
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>1130</v>
+        <v>1169</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>1132</v>
-      </c>
+        <v>1170</v>
+      </c>
+      <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
@@ -9208,14 +9673,12 @@
         <v>2</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>1133</v>
+        <v>1171</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>1133</v>
-      </c>
+        <v>1171</v>
+      </c>
+      <c r="E2" s="18"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
@@ -9246,14 +9709,12 @@
         <v>3</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>1134</v>
+        <v>1172</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>1135</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>1136</v>
-      </c>
+        <v>1172</v>
+      </c>
+      <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
@@ -9284,14 +9745,12 @@
         <v>4</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>1137</v>
+        <v>1173</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>1138</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>1139</v>
-      </c>
+        <v>1174</v>
+      </c>
+      <c r="E4" s="18"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
@@ -9322,14 +9781,12 @@
         <v>5</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>1140</v>
+        <v>1175</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>1141</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>1142</v>
-      </c>
+        <v>1176</v>
+      </c>
+      <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
@@ -9360,14 +9817,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>1145</v>
-      </c>
+        <v>1177</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
@@ -9395,15 +9848,11 @@
       <c r="B7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>1146</v>
-      </c>
+      <c r="C7" s="19"/>
       <c r="D7" s="19" t="s">
-        <v>1147</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>1148</v>
-      </c>
+        <v>1178</v>
+      </c>
+      <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
@@ -9434,14 +9883,12 @@
         <v>8</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>1149</v>
+        <v>1179</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>1150</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>1151</v>
-      </c>
+        <v>1179</v>
+      </c>
+      <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
@@ -9472,14 +9919,12 @@
         <v>9</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>1152</v>
+        <v>1180</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>1153</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>1154</v>
-      </c>
+        <v>1181</v>
+      </c>
+      <c r="E9" s="19"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
@@ -9510,14 +9955,12 @@
         <v>10</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>1155</v>
+        <v>1182</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>1156</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>1157</v>
-      </c>
+        <v>1183</v>
+      </c>
+      <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
@@ -9548,14 +9991,12 @@
         <v>11</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>1158</v>
+        <v>1184</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>1159</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>1160</v>
-      </c>
+        <v>1185</v>
+      </c>
+      <c r="E11" s="19"/>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -9586,14 +10027,12 @@
         <v>12</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>1161</v>
+        <v>1186</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>1162</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>1163</v>
-      </c>
+        <v>1187</v>
+      </c>
+      <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
@@ -9621,15 +10060,11 @@
       <c r="B13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>1164</v>
-      </c>
+      <c r="C13" s="19"/>
       <c r="D13" s="19" t="s">
-        <v>1165</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>1166</v>
-      </c>
+        <v>1188</v>
+      </c>
+      <c r="E13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
@@ -9657,15 +10092,11 @@
       <c r="B14" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>1167</v>
-      </c>
+      <c r="C14" s="18"/>
       <c r="D14" s="18" t="s">
-        <v>1168</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>1169</v>
-      </c>
+        <v>1189</v>
+      </c>
+      <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
@@ -9693,15 +10124,11 @@
       <c r="B15" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>1170</v>
-      </c>
+      <c r="C15" s="19"/>
       <c r="D15" s="19" t="s">
-        <v>1171</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>1172</v>
-      </c>
+        <v>1190</v>
+      </c>
+      <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
@@ -9731,7 +10158,7 @@
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
@@ -9762,14 +10189,12 @@
         <v>17</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>1174</v>
+        <v>320</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>1175</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>1176</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
@@ -9798,14 +10223,12 @@
         <v>18</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>1177</v>
+        <v>1191</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>1178</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>1179</v>
-      </c>
+        <v>1192</v>
+      </c>
+      <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
@@ -9833,15 +10256,11 @@
       <c r="B19" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>1180</v>
-      </c>
+      <c r="C19" s="19"/>
       <c r="D19" s="19" t="s">
-        <v>1181</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>1182</v>
-      </c>
+        <v>1193</v>
+      </c>
+      <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
@@ -9870,14 +10289,12 @@
         <v>20</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>1183</v>
+        <v>1194</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>1185</v>
-      </c>
+        <v>1193</v>
+      </c>
+      <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
@@ -9908,14 +10325,12 @@
         <v>21</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>1186</v>
+        <v>1195</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>1187</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>1188</v>
-      </c>
+        <v>1196</v>
+      </c>
+      <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
@@ -9944,14 +10359,12 @@
         <v>22</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>1189</v>
+        <v>1197</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>1190</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>1191</v>
-      </c>
+        <v>1198</v>
+      </c>
+      <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
@@ -9979,15 +10392,11 @@
       <c r="B23" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>1192</v>
-      </c>
+      <c r="C23" s="19"/>
       <c r="D23" s="19" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>1194</v>
-      </c>
+        <v>1199</v>
+      </c>
+      <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
@@ -10016,14 +10425,12 @@
         <v>24</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>1195</v>
+        <v>1200</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>1196</v>
-      </c>
+        <v>1201</v>
+      </c>
+      <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
@@ -10053,11 +10460,9 @@
       <c r="B25" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>1197</v>
-      </c>
+      <c r="C25" s="19"/>
       <c r="D25" s="19" t="s">
-        <v>1162</v>
+        <v>1202</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
@@ -10089,8 +10494,6 @@
       <c r="B26" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
@@ -10150,14 +10553,12 @@
         <v>28</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>1198</v>
+        <v>320</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>1200</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
@@ -10186,10 +10587,10 @@
         <v>29</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>1201</v>
+        <v>1166</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>1199</v>
+        <v>1166</v>
       </c>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
@@ -10221,15 +10622,11 @@
       <c r="B30" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="18" t="s">
-        <v>1202</v>
-      </c>
+      <c r="C30" s="18"/>
       <c r="D30" s="18" t="s">
-        <v>1202</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>1202</v>
-      </c>
+        <v>1203</v>
+      </c>
+      <c r="E30" s="18"/>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
@@ -10257,12 +10654,8 @@
       <c r="B31" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="19" t="s">
-        <v>1203</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>1204</v>
-      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
@@ -10293,15 +10686,11 @@
       <c r="B32" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="18" t="s">
-        <v>1204</v>
-      </c>
+      <c r="C32" s="18"/>
       <c r="D32" s="18" t="s">
-        <v>1204</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>731</v>
-      </c>
+        <v>1166</v>
+      </c>
+      <c r="E32" s="18"/>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
@@ -10329,15 +10718,11 @@
       <c r="B33" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="19" t="s">
-        <v>1204</v>
-      </c>
+      <c r="C33" s="19"/>
       <c r="D33" s="19" t="s">
-        <v>1204</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>1205</v>
-      </c>
+        <v>1166</v>
+      </c>
+      <c r="E33" s="19"/>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
@@ -10368,14 +10753,12 @@
         <v>34</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>1202</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>1202</v>
-      </c>
+        <v>1204</v>
+      </c>
+      <c r="E34" s="18"/>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
@@ -10404,14 +10787,12 @@
         <v>35</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>1133</v>
+        <v>1205</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>1133</v>
-      </c>
+        <v>1205</v>
+      </c>
+      <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
@@ -10445,9 +10826,7 @@
       <c r="D36" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="E36" s="18" t="s">
-        <v>164</v>
-      </c>
+      <c r="E36" s="18"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
@@ -10475,15 +10854,9 @@
       <c r="B37" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="19" t="s">
-        <v>1206</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>1207</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>1208</v>
-      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
@@ -10563,8 +10936,1466 @@
       <c r="Z39" s="19"/>
     </row>
     <row r="40" spans="1:26" ht="24.75" customHeight="1">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="21"/>
+      <c r="Y40" s="21"/>
+      <c r="Z40" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A40:B40"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E0126E-6BA0-445B-AAD0-129F142674B0}">
+  <sheetPr>
+    <tabColor rgb="FF70AD47"/>
+  </sheetPr>
+  <dimension ref="A1:Z40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="topRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" style="11" customWidth="1"/>
+    <col min="3" max="5" width="50.7109375" style="11" customWidth="1"/>
+    <col min="6" max="26" width="50.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+    </row>
+    <row r="2" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+    </row>
+    <row r="3" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+    </row>
+    <row r="4" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+    </row>
+    <row r="5" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A5" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+    </row>
+    <row r="6" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+    </row>
+    <row r="7" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+    </row>
+    <row r="8" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A8" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+    </row>
+    <row r="9" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+    </row>
+    <row r="10" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A10" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+    </row>
+    <row r="11" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A11" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+    </row>
+    <row r="12" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+    </row>
+    <row r="13" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+    </row>
+    <row r="14" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+    </row>
+    <row r="15" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+    </row>
+    <row r="16" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
+    </row>
+    <row r="17" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+    </row>
+    <row r="18" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+    </row>
+    <row r="19" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+    </row>
+    <row r="20" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+    </row>
+    <row r="21" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A21" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+    </row>
+    <row r="22" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+    </row>
+    <row r="23" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+    </row>
+    <row r="24" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="18"/>
+    </row>
+    <row r="25" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A25" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+    </row>
+    <row r="26" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A26" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="18"/>
+    </row>
+    <row r="27" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A27" s="16"/>
+      <c r="B27" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+    </row>
+    <row r="28" spans="1:26" ht="47.25" customHeight="1">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18"/>
+    </row>
+    <row r="29" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+    </row>
+    <row r="30" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A30" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="18"/>
+      <c r="X30" s="18"/>
+      <c r="Y30" s="18"/>
+      <c r="Z30" s="18"/>
+    </row>
+    <row r="31" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+    </row>
+    <row r="32" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A32" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>731</v>
+      </c>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="18"/>
+      <c r="Y32" s="18"/>
+      <c r="Z32" s="18"/>
+    </row>
+    <row r="33" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A33" s="16"/>
+      <c r="B33" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
+    </row>
+    <row r="34" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A34" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18"/>
+      <c r="W34" s="18"/>
+      <c r="X34" s="18"/>
+      <c r="Y34" s="18"/>
+      <c r="Z34" s="18"/>
+    </row>
+    <row r="35" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A35" s="16"/>
+      <c r="B35" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="19"/>
+    </row>
+    <row r="36" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A36" s="16"/>
+      <c r="B36" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="18"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="18"/>
+      <c r="Y36" s="18"/>
+      <c r="Z36" s="18"/>
+    </row>
+    <row r="37" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A37" s="16"/>
+      <c r="B37" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19"/>
+    </row>
+    <row r="38" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A38" s="16"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="18"/>
+      <c r="Z38" s="18"/>
+    </row>
+    <row r="39" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A39" s="16"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="19"/>
+    </row>
+    <row r="40" spans="1:26" ht="24.75" customHeight="1">
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
@@ -11952,8 +13783,8 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" spans="1:26" ht="24.75" customHeight="1">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -13528,8 +15359,8 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" spans="1:26" ht="24.75" customHeight="1">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -13571,7 +15402,7 @@
   <dimension ref="A1:AB40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="U24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="U4" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="U24" sqref="U24"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
@@ -16120,8 +17951,8 @@
       <c r="AB39" s="3"/>
     </row>
     <row r="40" spans="1:28" ht="24.75" customHeight="1">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -18514,8 +20345,8 @@
       <c r="AN39" s="19"/>
     </row>
     <row r="40" spans="1:40" ht="24.75" customHeight="1">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -20027,8 +21858,8 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" spans="1:26" ht="24.75" customHeight="1">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -20070,8 +21901,8 @@
   <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="P14" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="P17" sqref="P17"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -20278,7 +22109,7 @@
         <v>763</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -20298,55 +22129,55 @@
         <v>Korte omschrijving</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
@@ -20366,52 +22197,56 @@
         <v>Type algoritme</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>226</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>226</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>785</v>
+        <v>226</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>786</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
+        <v>225</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
@@ -20430,52 +22265,56 @@
         <v>Domein</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="R6" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
@@ -20491,44 +22330,50 @@
         <v>Link naar publiekspagina</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>792</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>793</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="M7" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
         <v>795</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
+        <v>794</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>794</v>
+      </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
@@ -20591,8 +22436,12 @@
       <c r="Q8" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
+      <c r="R8" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>796</v>
+      </c>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
@@ -20611,7 +22460,7 @@
         <v>Doel</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>798</v>
@@ -20659,7 +22508,7 @@
         <v>810</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
@@ -20679,55 +22528,55 @@
         <v>Impact</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
@@ -20747,53 +22596,55 @@
         <v>Proportionaliteit</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="O11" s="3"/>
+        <v>838</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>794</v>
+      </c>
       <c r="P11" s="3" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -20813,48 +22664,56 @@
         <v>Proces</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
+        <v>790</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>794</v>
+      </c>
       <c r="Q12" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
+        <v>845</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>794</v>
+      </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
@@ -20870,48 +22729,56 @@
         <v>Link naar projectpagina</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>847</v>
-      </c>
-      <c r="O13" s="3"/>
+        <v>850</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>794</v>
+      </c>
       <c r="P13" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
+      <c r="Q13" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>794</v>
+      </c>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
@@ -20927,55 +22794,55 @@
         <v>Omschrijving</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
@@ -20992,50 +22859,52 @@
         <v>Link naar ontwikkelaar</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>795</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>866</v>
+        <v>794</v>
       </c>
       <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
+      <c r="S15" s="3" t="s">
+        <v>794</v>
+      </c>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
@@ -21051,46 +22920,48 @@
         <v>Link naar broncode</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2" t="s">
-        <v>866</v>
+        <v>794</v>
       </c>
       <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
+      <c r="S16" s="2" t="s">
+        <v>794</v>
+      </c>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
@@ -21106,13 +22977,13 @@
         <v>Koppelingen met basisregistraties</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>360</v>
@@ -21142,19 +23013,19 @@
         <v>360</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
@@ -21171,55 +23042,55 @@
         <v>Databronnen</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
@@ -21236,55 +23107,55 @@
         <v>Methoden en modellen</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
@@ -21301,55 +23172,55 @@
         <v>Monitoring</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>389</v>
+        <v>794</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -21369,53 +23240,55 @@
         <v>Menselijke tussenkomst</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>920</v>
-      </c>
-      <c r="P21" s="3"/>
+        <v>923</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>794</v>
+      </c>
       <c r="Q21" s="3" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
@@ -21432,55 +23305,55 @@
         <v>Risico's</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="R22" s="2">
-        <v>1</v>
-      </c>
-      <c r="S22" s="2">
-        <v>1</v>
+        <v>933</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>933</v>
       </c>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -21497,51 +23370,55 @@
         <v>Prestatienormen</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>938</v>
-      </c>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
+        <v>941</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>794</v>
+      </c>
       <c r="R23" s="3" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
@@ -21558,40 +23435,40 @@
         <v>Bevoegde autoriteit</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>755</v>
@@ -21600,7 +23477,7 @@
         <v>755</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="R24" s="2" t="s">
         <v>755</v>
@@ -21626,55 +23503,55 @@
         <v>Wettelijke grondslag</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
@@ -21792,17 +23669,19 @@
         <v>360</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q28" s="2"/>
+        <v>794</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>794</v>
+      </c>
       <c r="R28" s="2" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
@@ -21819,19 +23698,19 @@
         <v>Omschrijving van de DPIA</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>959</v>
+        <v>964</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>389</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>961</v>
+        <v>966</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>389</v>
@@ -21852,17 +23731,23 @@
         <v>389</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>963</v>
-      </c>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
+        <v>968</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>794</v>
+      </c>
       <c r="R29" s="3" t="s">
-        <v>964</v>
-      </c>
-      <c r="S29" s="3"/>
+        <v>969</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>794</v>
+      </c>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
@@ -21881,51 +23766,53 @@
         <v>Bezwaarprocedure</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>790</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>794</v>
+      </c>
       <c r="P30" s="2" t="s">
-        <v>389</v>
+        <v>794</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>966</v>
+        <v>971</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
@@ -21942,55 +23829,55 @@
         <v>Schema</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>970</v>
+        <v>977</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>970</v>
+        <v>977</v>
       </c>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
@@ -22010,55 +23897,55 @@
         <v>UUID</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>971</v>
+        <v>978</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>971</v>
+        <v>978</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>971</v>
+        <v>978</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>971</v>
+        <v>978</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>971</v>
+        <v>978</v>
       </c>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
@@ -22075,55 +23962,55 @@
         <v>URL van de bronregistratie</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>971</v>
+        <v>978</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>971</v>
+        <v>978</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>971</v>
+        <v>978</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>971</v>
+        <v>978</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>971</v>
+        <v>978</v>
       </c>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
@@ -22143,55 +24030,55 @@
         <v>E-mailadres van de contactpersoon</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>973</v>
+        <v>980</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>973</v>
+        <v>980</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>973</v>
+        <v>980</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>973</v>
+        <v>980</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>973</v>
+        <v>980</v>
       </c>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
@@ -22208,55 +24095,55 @@
         <v>Geografisch gebied</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
@@ -22453,8 +24340,8 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" spans="1:26" ht="24.75" customHeight="1">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -22495,9 +24382,9 @@
   </sheetPr>
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -22518,7 +24405,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>975</v>
+        <v>982</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
@@ -22552,7 +24439,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>976</v>
+        <v>983</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
@@ -22586,7 +24473,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>977</v>
+        <v>984</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
@@ -22620,7 +24507,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
@@ -22654,7 +24541,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>979</v>
+        <v>986</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -22688,7 +24575,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>980</v>
+        <v>987</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -22752,7 +24639,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>981</v>
+        <v>988</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -22786,7 +24673,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>982</v>
+        <v>989</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -22820,7 +24707,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>983</v>
+        <v>990</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
@@ -22854,7 +24741,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>984</v>
+        <v>991</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -22888,7 +24775,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>985</v>
+        <v>992</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
@@ -22920,7 +24807,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>986</v>
+        <v>993</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -22952,7 +24839,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>987</v>
+        <v>994</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -23166,7 +25053,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>988</v>
+        <v>995</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
@@ -23290,7 +25177,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>989</v>
+        <v>996</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
@@ -23448,7 +25335,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>990</v>
+        <v>997</v>
       </c>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
@@ -23512,7 +25399,7 @@
         <v>32</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>991</v>
+        <v>998</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
@@ -23576,7 +25463,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>992</v>
+        <v>999</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
@@ -23608,7 +25495,7 @@
         <v>35</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
@@ -23671,8 +25558,8 @@
       <c r="B37" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="30">
-        <v>45017</v>
+      <c r="C37" s="28">
+        <v>45383</v>
       </c>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
@@ -23755,8 +25642,8 @@
       <c r="Z39" s="19"/>
     </row>
     <row r="40" spans="1:26" ht="24.75" customHeight="1">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
@@ -23799,7 +25686,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -23822,31 +25709,31 @@
         <v>Naam</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>993</v>
+        <v>1000</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>994</v>
+        <v>1001</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>995</v>
+        <v>1002</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>996</v>
+        <v>1003</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>997</v>
+        <v>1004</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>998</v>
+        <v>1005</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>999</v>
+        <v>1006</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1000</v>
+        <v>1007</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1001</v>
+        <v>1008</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -23874,31 +25761,31 @@
         <v>Organisatie</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -23926,10 +25813,10 @@
         <v>Afdeling</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>1004</v>
+        <v>1011</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>1005</v>
+        <v>1012</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -23964,31 +25851,31 @@
         <v>Korte omschrijving</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>1006</v>
+        <v>1013</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>1007</v>
+        <v>1014</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1008</v>
+        <v>1015</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1009</v>
+        <v>1016</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>1010</v>
+        <v>1017</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>1011</v>
+        <v>1018</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>1014</v>
+        <v>1021</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -24016,10 +25903,10 @@
         <v>Type algoritme</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>1015</v>
+        <v>1022</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>979</v>
+        <v>986</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>225</v>
@@ -24068,10 +25955,10 @@
         <v>Domein</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>1016</v>
+        <v>1023</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>1017</v>
+        <v>1024</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -24102,32 +25989,32 @@
         <f>'Template (dupliceer dit blad)'!B7</f>
         <v>Link naar publiekspagina</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>1018</v>
+      <c r="C7" s="27" t="s">
+        <v>1025</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>1019</v>
+        <v>1026</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1020</v>
+        <v>1027</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1021</v>
+        <v>1028</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>1023</v>
+        <v>1030</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>1024</v>
+        <v>1031</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1025</v>
+        <v>1032</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>1026</v>
+        <v>1033</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -24207,29 +26094,29 @@
         <v>Doel</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>1029</v>
+        <v>1036</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>1029</v>
+        <v>1036</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>1030</v>
+        <v>1037</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>1031</v>
+        <v>1038</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>1032</v>
+        <v>1039</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>1029</v>
+        <v>1036</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -24257,27 +26144,27 @@
         <v>Impact</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>1034</v>
+        <v>1041</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>1036</v>
+        <v>1043</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>1037</v>
+        <v>1044</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>1038</v>
+        <v>1045</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>1039</v>
+        <v>1046</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -24306,7 +26193,7 @@
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19" t="s">
-        <v>1040</v>
+        <v>1047</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -24403,31 +26290,31 @@
         <v>Omschrijving</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>1041</v>
+        <v>1048</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>1042</v>
+        <v>1049</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1043</v>
+        <v>1050</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>1044</v>
+        <v>1051</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>1045</v>
+        <v>1052</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>1046</v>
+        <v>1053</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>1047</v>
+        <v>1054</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>1048</v>
+        <v>1055</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>1049</v>
+        <v>1056</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -24561,25 +26448,25 @@
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
       <c r="E18" s="2" t="s">
-        <v>1050</v>
+        <v>1057</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>1051</v>
+        <v>1058</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>1052</v>
+        <v>1059</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>1053</v>
+        <v>1060</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>1055</v>
+        <v>1062</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>1056</v>
+        <v>1063</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -24607,22 +26494,22 @@
       <c r="D19" s="19"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>1057</v>
+        <v>1064</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>1057</v>
+        <v>1064</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>1057</v>
+        <v>1064</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>1057</v>
+        <v>1064</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>226</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>1057</v>
+        <v>1064</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -24647,10 +26534,10 @@
         <v>Monitoring</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>1058</v>
+        <v>1065</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>1059</v>
+        <v>1066</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -24685,13 +26572,13 @@
         <v>Menselijke tussenkomst</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>1060</v>
+        <v>1067</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>1061</v>
+        <v>1068</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>1062</v>
+        <v>1069</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -24722,25 +26609,25 @@
         <v>Risico's</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>1063</v>
+        <v>1070</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>1064</v>
+        <v>1071</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>1065</v>
+        <v>1072</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>1066</v>
+        <v>1073</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
-        <v>1067</v>
+        <v>1074</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>1068</v>
+        <v>1075</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -24804,7 +26691,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2" t="s">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -24928,7 +26815,7 @@
         <v>Data Protection Impact Assessment (DPIA)</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>1069</v>
+        <v>1076</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="2"/>
@@ -24997,10 +26884,10 @@
         <v>Bezwaarprocedure</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>1070</v>
+        <v>1077</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>1070</v>
+        <v>1077</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -25041,22 +26928,22 @@
         <v>157</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -25150,10 +27037,10 @@
       </c>
       <c r="C34" s="18"/>
       <c r="D34" s="18" t="s">
-        <v>1071</v>
+        <v>1078</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>1071</v>
+        <v>1078</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -25186,25 +27073,25 @@
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="3" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -25355,8 +27242,8 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" spans="1:26" ht="24.75" customHeight="1">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -25386,13 +27273,16 @@
   <mergeCells count="1">
     <mergeCell ref="A40:B40"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{1B6B5255-9CC2-431E-8D5D-D5B701EA4D78}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100619B2AD89673544B9B1C2947AA2BF934" ma:contentTypeVersion="12" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="9131297be32a8cccdc7cf644405b091d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="91a2c0d6-5642-48e7-9fe4-66890da907dd" xmlns:ns3="7acd0389-40a3-4385-aeb9-6e01f2fe16d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ed21fbd83bf2b11983028a66db4380" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100619B2AD89673544B9B1C2947AA2BF934" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="5e9590cc1e9cfbe61a90cc9e7a2cbf6a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="91a2c0d6-5642-48e7-9fe4-66890da907dd" xmlns:ns3="7acd0389-40a3-4385-aeb9-6e01f2fe16d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2237ed2d7d47df4e4a5e2db242cdfe5a" ns2:_="" ns3:_="">
     <xsd:import namespace="91a2c0d6-5642-48e7-9fe4-66890da907dd"/>
     <xsd:import namespace="7acd0389-40a3-4385-aeb9-6e01f2fe16d9"/>
     <xsd:element name="properties">
@@ -25412,6 +27302,7 @@
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:Toelichting" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -25466,6 +27357,11 @@
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -25631,7 +27527,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3E6424B-3038-42E4-8C32-8E2FA2F80C46}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F82157A-FBC9-4E61-9B38-041B1C31CBEC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
